--- a/WorshipCreator.TestData/Source/Books/HillsongWorship/HillsongWorship_OLD.xlsx
+++ b/WorshipCreator.TestData/Source/Books/HillsongWorship/HillsongWorship_OLD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrickr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PageOptimizer\Data\WorshipCreator.TestData\Source\Books\HillsongWorship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4596C5C3-F113-4186-BD9C-E217DBEBD4F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45B5A6E-8E04-4935-8357-E074BA067849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{EEB768F0-7332-49A7-8FEF-956E745C1135}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{EEB768F0-7332-49A7-8FEF-956E745C1135}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="695">
   <si>
     <t>The Power of Your Love</t>
   </si>
@@ -1693,6 +1693,438 @@
   </si>
   <si>
     <t>2. All for Love (Mia Fieldes) – Worship Leaders: Marcus Temu, Tulele Faletolu, Barry Southgate</t>
+  </si>
+  <si>
+    <t>1. "My Redeemer Lives" (Reuben Morgan) - 4:08</t>
+  </si>
+  <si>
+    <t>2. "Great in Power" (Russell Fragar) - 3:24</t>
+  </si>
+  <si>
+    <t>3. "I Feel Like I'm Falling" (Raymond Badham) - 5:28</t>
+  </si>
+  <si>
+    <t>4. "Your Unfailing Love" (Reuben Morgan) - 6:27</t>
+  </si>
+  <si>
+    <t>5. "Dwelling Places" (Miriam Webster) - 5:05</t>
+  </si>
+  <si>
+    <t>6. "What the Lord Has Done in Me" (Reuben Morgan) - 4:59</t>
+  </si>
+  <si>
+    <t>7. "Sing of Your Great Love" (Darlene Zschech) - 8:25</t>
+  </si>
+  <si>
+    <t>8. "By Your Side" (Marty Sampson) - 4:47</t>
+  </si>
+  <si>
+    <t>9. "In Freedom" (Aran Puddle) - 3:26</t>
+  </si>
+  <si>
+    <t>10. "You Said" (Reuben Morgan) - 4:33</t>
+  </si>
+  <si>
+    <t>11. "Stay" (Luke Munns) - 8:27</t>
+  </si>
+  <si>
+    <t>12. "Eagle's Wings" (Reuben Morgan) - 6:29</t>
+  </si>
+  <si>
+    <t>13. "Free to Dance" (Darlene Zschech) - 4:15</t>
+  </si>
+  <si>
+    <t>14. "This Is How We Overcome" (Reuben Morgan) - 3:48</t>
+  </si>
+  <si>
+    <t>1. "That's What We Came Here For" (Russell Fragar and Darlene Zschech) - Lead vocals: Darlene Zschech - 3:49</t>
+  </si>
+  <si>
+    <t>2. "Touching Heaven, Changing Earth" (Darlene Zschech) - Lead vocals: Darlene Zschech - 3:51</t>
+  </si>
+  <si>
+    <t>3. "Church on Fire" (Fragar) - Lead vocals: Gilbert Clark and Lucy Fisher - 3:23</t>
+  </si>
+  <si>
+    <t>4. "Lord Your Goodness" (Morgan) - Lead vocals: Darlene Zschech - 3:47</t>
+  </si>
+  <si>
+    <t>5. "Holy Spirit Rain Down" (Fragar) - Lead vocals: Darlene Zschech - 6:43</t>
+  </si>
+  <si>
+    <t>6. "You Are Holy" (Morgan) - Lead vocals: Darlene Zschech - 5:27</t>
+  </si>
+  <si>
+    <t>7. "Jesus You Gave it All" (Craig Gower) - Lead vocals: Darlene Zschech - 6:05</t>
+  </si>
+  <si>
+    <t>8. "Yes and Amen" (Fragar) - Lead vocals: Darlene Zschech and Jayne Denham - 3:59</t>
+  </si>
+  <si>
+    <t>9. "You Gave Me Love" (Morgan) - Lead vocals: Darlene Zschech - 3:59</t>
+  </si>
+  <si>
+    <t>10. "Glorified" (Steve McPherson) - Lead vocals: Darlene Zschech and Steve McPherson - 4:05</t>
+  </si>
+  <si>
+    <t>11. "I Will Bless You Lord" (Zschech) - Lead vocals: Miriam Webster and Rob Eastwood - 5:15</t>
+  </si>
+  <si>
+    <t>12. "My Greatest Love is You" (Fragar) - Lead vocals: Steve McPherson, Mark Stevens, Rob Eastwood, Scott Haslem, and Gilbert Clark - 4:30</t>
+  </si>
+  <si>
+    <t>13. "Jesus You're All I Need" (Zschech) - Lead vocals: Darlene Zschech - 6:00</t>
+  </si>
+  <si>
+    <t>14. "The Potter's Hand" (Zschech) - Lead vocals: Darlene Zschech - 7:37</t>
+  </si>
+  <si>
+    <t>15. "Touching Heaven, Changing Earth (Reprise)" - 2:50</t>
+  </si>
+  <si>
+    <t>Shelter House</t>
+  </si>
+  <si>
+    <t>People Get Free</t>
+  </si>
+  <si>
+    <t>Love You So Much</t>
+  </si>
+  <si>
+    <t>I Live To Know You</t>
+  </si>
+  <si>
+    <t>In Your Hands</t>
+  </si>
+  <si>
+    <t>Lord Of All</t>
+  </si>
+  <si>
+    <t>Before The Throne</t>
+  </si>
+  <si>
+    <t>Can't Stop Talking</t>
+  </si>
+  <si>
+    <t>The Love Of God Can Do</t>
+  </si>
+  <si>
+    <t>I Know It</t>
+  </si>
+  <si>
+    <t>Glory To The King</t>
+  </si>
+  <si>
+    <t>Your Love</t>
+  </si>
+  <si>
+    <t>So You Would Come</t>
+  </si>
+  <si>
+    <t>All Things Are Possible (Reprise)</t>
+  </si>
+  <si>
+    <t>1. "God Is in the House" (Russell Fragar &amp; Darlene Zschech) Lead Vocalist: Darlene Zschech</t>
+  </si>
+  <si>
+    <t>2. "Joy in the Holy Ghost" (Fragar) Lead Vocalist: Lucy Fisher</t>
+  </si>
+  <si>
+    <t>3. "Steppin' Out" (Steve McPherson) Lead Vocalist: Steve McPherson</t>
+  </si>
+  <si>
+    <t>4. "My Heart Sings Praises" (Fragar) Lead Vocalist: Darlene Zschech</t>
+  </si>
+  <si>
+    <t>5. "And That My Soul Knows Very Well" (Zschech &amp; Fragar) Lead Vocalist: Darlene Zschech</t>
+  </si>
+  <si>
+    <t>6. "Jesus, What a Beautiful Name" (Tanya Riches) Lead Vocalist: Lisa Young</t>
+  </si>
+  <si>
+    <t>7. "Let the Peace of God Reign" (Zschech) Lead Vocalists: Rob Eastwood &amp; Darlene Zschech</t>
+  </si>
+  <si>
+    <t>8. "I Give You My Heart" (Reuben Morgan) Lead Vocalist: Steve McPherson</t>
+  </si>
+  <si>
+    <t>9. "Walking in the Light" (Zschech) Lead Vocalist: Darlene Zschech</t>
+  </si>
+  <si>
+    <t>10. "Your People Sing Praises" (Fragar) Lead Vocalist: Darlene Zschech</t>
+  </si>
+  <si>
+    <t>11. "I Believe the Promise" (Fragar) Lead Vocalists: Erica Crocker &amp; Darlene Zschech</t>
+  </si>
+  <si>
+    <t>12. "Thank You, Lord" (Dennis Jernigan) Lead Vocalists: Darlene Zschech &amp; Donia Gandjou</t>
+  </si>
+  <si>
+    <t>13. "Lord of the Heavens" (Lucy Fisher) Lead Vocalist: Darlene Zschech</t>
+  </si>
+  <si>
+    <t>14. "I Will Run to You" (Zschech) Lead Vocalist: Darlene Zschech</t>
+  </si>
+  <si>
+    <t>15. "God Is in the House" (reprise) Lead Vocalist: Darlene Zschech</t>
+  </si>
+  <si>
+    <t>1. "Friends in High Places" (Russell Fragar) - 3:50 - lead vocals: Darlene Zschech</t>
+  </si>
+  <si>
+    <t>2. "He Shall Be Called" (Fragar) - 2:59 - lead vocals: Lucy Fisher</t>
+  </si>
+  <si>
+    <t>3. "Praise His Holy Name" (Darlene Zschech) - 3:24 - lead vocals: Darlene Zschech</t>
+  </si>
+  <si>
+    <t>4. "Rock of the Ages" (Geoff Bullock, Zschech) - 3:22 - lead vocals: Donia Makedonez</t>
+  </si>
+  <si>
+    <t>5. "Whenever I See" (Bullock) - 3:47 - lead vocals: Steve McPherson</t>
+  </si>
+  <si>
+    <t>6. "Now Is the Time" (Bullock) - 5:16 - lead vocals: Rob Eastwood</t>
+  </si>
+  <si>
+    <t>7. "You're All I Need" (Bullock) - 5:12 - lead vocals: Geoff Bullock, Darlene Zschech</t>
+  </si>
+  <si>
+    <t>8. "Salvation" (Bullock) - 3:34 - lead vocalss: Darlene Zschech</t>
+  </si>
+  <si>
+    <t>9. "Holding On" (Bullock) - 3:31 - lead vocals: Darlene Zschech, Geoff Bullock</t>
+  </si>
+  <si>
+    <t>10. "Because of Your Love" (Fragar) - 2:51 - lead vocals: Darlene Zschech; Craig Gower</t>
+  </si>
+  <si>
+    <t>11. "King of Kings" (Bullock) - 3:13 - lead vocals: Darlene Zschech</t>
+  </si>
+  <si>
+    <t>12. "Lord I Give Myself" (Zschech) - 2:29 - lead vocals: Darlene Zschech</t>
+  </si>
+  <si>
+    <t>13. "I'll Worship You" (Bullock) - 4:31 - lead vocals: Darlene Zschech; Geoff Bullock</t>
+  </si>
+  <si>
+    <t>14. "This Kingdom" (Bullock) - 6:00 - lead vocals: Darlene Zschech; Rob Eastwood</t>
+  </si>
+  <si>
+    <t>15. "I Can't Wait" (Fragar) - 5:11 - lead vocals: Donia Makedonez; Lucy Fisher; Russell Fragar</t>
+  </si>
+  <si>
+    <t>1. "Introduction"</t>
+  </si>
+  <si>
+    <t>2. "People Just Like Us" (Russell Fragar) - Lead Vocals: Debbie Steinhardt, Geoff Bullock &amp; Darlene Zschech</t>
+  </si>
+  <si>
+    <t>3. "Father of Lights" (Geoff Bullock) - Lead Vocals: Darlene Zschech &amp; David Evans</t>
+  </si>
+  <si>
+    <t>4. "In the Name of the Lord" (Bullock) - Lead Vocals: Darlene Zschech, David Evans &amp; Geoff Bullock</t>
+  </si>
+  <si>
+    <t>5. "You Rescued Me" (Bullock) - Lead Vocal: Rob Eastwood</t>
+  </si>
+  <si>
+    <t>6. "The Power and the Glory" (Bullock) - Lead Vocals: David Evans &amp; Darlene Zschech</t>
+  </si>
+  <si>
+    <t>7. "Have Faith in God" (Bullock) - Lead Vocals: David Evans, Geoff Bullock &amp; Darlene Zschech</t>
+  </si>
+  <si>
+    <t>8. "Your Love Keeps Following Me" (Fragar) - Lead Vocals: Lucy Fisher</t>
+  </si>
+  <si>
+    <t>9. "I Just Want to Praise the Lord" (Bullock) - Lead Vocals: Darlene Zschech, David Evans &amp; Geoff Bullock</t>
+  </si>
+  <si>
+    <t>10. "Longin' for Your Touch" (Paul Iannuzzelli &amp; Tim Uluirewa) - Lead Vocal: David Evans</t>
+  </si>
+  <si>
+    <t>11. "In the Silence" (Iannuzzelli) - Lead Vocals: Darlene Zschech &amp; David Evans</t>
+  </si>
+  <si>
+    <t>12. "Just Let Me Say" (Bullock) - Lead Vocals: Debbie Steinhardt &amp; Geoff Bullock</t>
+  </si>
+  <si>
+    <t>13. "Shout to the Lord" (Darlene Zschech) - Lead Vocals: Darlene Zschech</t>
+  </si>
+  <si>
+    <t>14. "Faith" (Bullock) - Lead Vocals: Darlene Zschech, David Evans &amp; Geoff Bullock</t>
+  </si>
+  <si>
+    <t>1. "The Stone's Been Rolled Away" (Geoff Bullock) - Lead Vocal: Darlene Zschech, b. Geoff Bullock</t>
+  </si>
+  <si>
+    <t>2. "You Give Me Shelter" (Geoff Bullock) - Lead Vocal: Sylvia Pettit &amp; Steve McPherson</t>
+  </si>
+  <si>
+    <t>3. "Your Name" (Darlene Zschech) - Lead Vocals: David Evans, Sylvia Pettit &amp; Darlene Zschech</t>
+  </si>
+  <si>
+    <t>4. "I'll Love You More" (Robert &amp; Debbie Eastwood) - Lead Vocals: Sylvia Pettit &amp; David Evans</t>
+  </si>
+  <si>
+    <t>5. "Let Your Presence Fall" (David Willersdorf) - Lead Vocal: Darlene Zschech, b. David Evans</t>
+  </si>
+  <si>
+    <t>6. "Holy Spirit Come" (Bullock) - Lead Vocals: Geoff Bullock, Darlene Zschech, David Evans, Steve McPherson &amp; Sylvia Pettit</t>
+  </si>
+  <si>
+    <t>7. "Holy One of God" (Bullock) - Lead Vocals: Darlene Zschech, b. David Evans</t>
+  </si>
+  <si>
+    <t>8. "I Believe" (Bullock) - Lead Vocals: Darlene Zschech &amp; Steve McPherson</t>
+  </si>
+  <si>
+    <t>9. "Make Me Your Servant" (Russell Fragar) - Lead Vocals: Darlene Zschech, David Evans &amp; Steve McPherson</t>
+  </si>
+  <si>
+    <t>10. "Jesus Lover of My Soul" (Daniel Grul, John Ezzy &amp; Steve McPherson) - Lead Vocal: Darlene Zschech, b. David Evans</t>
+  </si>
+  <si>
+    <t>11. "Oh Holy Spirit" (Bullock) - Lead Vocals: Darlene Zschech &amp; Geoff Bullock</t>
+  </si>
+  <si>
+    <t>12. "Within Your Love" (Bullock) - Lead Vocals: Sylvia Pettit, b. Geoff Bullock</t>
+  </si>
+  <si>
+    <t>13. "I Surrender" (Bullock) - Lead Vocals: Sylvia Pettit, b. Steve McPherson</t>
+  </si>
+  <si>
+    <t>14. "You Are the One" (Bullock) - Lead Vocals: Darlene Zschech</t>
+  </si>
+  <si>
+    <t>1. "The Time Has Come" (Geoff Bullock)</t>
+  </si>
+  <si>
+    <t>2. "We Will Rise" (Bullock)</t>
+  </si>
+  <si>
+    <t>3. "You Placed Your Love" (Bullock)</t>
+  </si>
+  <si>
+    <t>4. "Your Love" (Bullock)</t>
+  </si>
+  <si>
+    <t>5. "Blessed Be" (Bullock)</t>
+  </si>
+  <si>
+    <t>6. "You Are My Rock" (Bullock)</t>
+  </si>
+  <si>
+    <t>7. "Hear Me Calling" (Bullock)</t>
+  </si>
+  <si>
+    <t>8. "Refresh My Heart" (Bullock)</t>
+  </si>
+  <si>
+    <t>9. "The Power of Your Love" (Bullock)</t>
+  </si>
+  <si>
+    <t>10. "Lord We Come" (Bullock)</t>
+  </si>
+  <si>
+    <t>11. "I Will Worship You" (Bullock)</t>
+  </si>
+  <si>
+    <t>12. "You Are My God" (Bullock &amp; Gail Dunshea)</t>
+  </si>
+  <si>
+    <t>13. "Holy Spirit Rise" (Bullock)</t>
+  </si>
+  <si>
+    <t>14. "Glory" (Bullock)</t>
+  </si>
+  <si>
+    <t>15. "Latter Rain" (Bullock)</t>
+  </si>
+  <si>
+    <t>16. "The Great Southland" (Bullock)</t>
+  </si>
+  <si>
+    <t>Without Him</t>
+  </si>
+  <si>
+    <t>The Enemy's Defeated</t>
+  </si>
+  <si>
+    <t>Revival</t>
+  </si>
+  <si>
+    <t>Sanctify</t>
+  </si>
+  <si>
+    <t>Armed And Dangerous</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Praise Him</t>
+  </si>
+  <si>
+    <t>I Am Not Ashamed</t>
+  </si>
+  <si>
+    <t>Lord Take My Eyes</t>
+  </si>
+  <si>
+    <t>Blessing</t>
+  </si>
+  <si>
+    <t>Holy</t>
+  </si>
+  <si>
+    <t>I'm Your Child/I'll Take This Time</t>
+  </si>
+  <si>
+    <t>Show Your Glory (Alternate Mix)</t>
+  </si>
+  <si>
+    <t>Heaven Suffers Violence</t>
+  </si>
+  <si>
+    <t>Brian Houston</t>
+  </si>
+  <si>
+    <t>With Your Love</t>
+  </si>
+  <si>
+    <t>Geoff Bullock</t>
+  </si>
+  <si>
+    <t>We're Not Looking Back</t>
+  </si>
+  <si>
+    <t>I Will Lift My Voice</t>
+  </si>
+  <si>
+    <t>We've Come To Worship The Lord</t>
+  </si>
+  <si>
+    <t>Lift High His Name</t>
+  </si>
+  <si>
+    <t>The Power Of God</t>
+  </si>
+  <si>
+    <t>Brian Houston, Geoff Bullock</t>
+  </si>
+  <si>
+    <t>He Is The King</t>
+  </si>
+  <si>
+    <t>We Will Not Bow To The World</t>
+  </si>
+  <si>
+    <t>The Heavens Shall Declare</t>
+  </si>
+  <si>
+    <t>Rob Eastwood</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +2178,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3748,11 +4187,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440D048F-C83C-42AF-AC46-34FFE0EE51A1}">
-  <dimension ref="A1:K385"/>
+  <dimension ref="A1:K528"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D282" sqref="D282"/>
+      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A386" sqref="A386:I528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9769,26 +10208,26 @@
         <v>1</v>
       </c>
       <c r="D297" t="str">
-        <f>RIGHT(J297, LEN(J297)-FIND(". ",J297)-1)</f>
+        <f t="shared" ref="D297:D328" si="0">RIGHT(J297, LEN(J297)-FIND(". ",J297)-1)</f>
         <v>Let Creation Sing</v>
       </c>
       <c r="E297" t="str">
-        <f>LEFT(K297,FIND(") ",K297) - 1)</f>
+        <f t="shared" ref="E297:E328" si="1">LEFT(K297,FIND(") ",K297) - 1)</f>
         <v>Reuben Morgan</v>
       </c>
       <c r="F297" t="str">
-        <f>RIGHT(I297,LEN(I297)-FIND(": ", I297)-1)</f>
+        <f t="shared" ref="F297:F328" si="2">RIGHT(I297,LEN(I297)-FIND(": ", I297)-1)</f>
         <v>Darlene Zschech b. Reuben Morgan</v>
       </c>
       <c r="I297" t="s">
         <v>431</v>
       </c>
       <c r="J297" t="str">
-        <f>LEFT(I297,FIND(" (",I297)-1)</f>
+        <f t="shared" ref="J297:J328" si="3">LEFT(I297,FIND(" (",I297)-1)</f>
         <v>1. Let Creation Sing</v>
       </c>
       <c r="K297" t="str">
-        <f>RIGHT(I297, LEN(I297)-FIND(" (",I297) - 1)</f>
+        <f t="shared" ref="K297:K328" si="4">RIGHT(I297, LEN(I297)-FIND(" (",I297) - 1)</f>
         <v>Reuben Morgan) – Worship Leaders: Darlene Zschech b. Reuben Morgan</v>
       </c>
     </row>
@@ -9803,26 +10242,26 @@
         <v>2</v>
       </c>
       <c r="D298" t="str">
-        <f>RIGHT(J298, LEN(J298)-FIND(". ",J298)-1)</f>
+        <f t="shared" si="0"/>
         <v>Salvation Is Here</v>
       </c>
       <c r="E298" t="str">
-        <f>LEFT(K298,FIND(") ",K298) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Joel Houston</v>
       </c>
       <c r="F298" t="str">
-        <f>RIGHT(I298,LEN(I298)-FIND(": ", I298)-1)</f>
+        <f t="shared" si="2"/>
         <v>Joel Houston, b. Darlene Zschech</v>
       </c>
       <c r="I298" t="s">
         <v>432</v>
       </c>
       <c r="J298" t="str">
-        <f>LEFT(I298,FIND(" (",I298)-1)</f>
+        <f t="shared" si="3"/>
         <v>2. Salvation Is Here</v>
       </c>
       <c r="K298" t="str">
-        <f>RIGHT(I298, LEN(I298)-FIND(" (",I298) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Joel Houston) – Worship Leaders: Joel Houston, b. Darlene Zschech</v>
       </c>
     </row>
@@ -9837,26 +10276,26 @@
         <v>3</v>
       </c>
       <c r="D299" t="str">
-        <f>RIGHT(J299, LEN(J299)-FIND(". ",J299)-1)</f>
+        <f t="shared" si="0"/>
         <v>His Love</v>
       </c>
       <c r="E299" t="str">
-        <f>LEFT(K299,FIND(") ",K299) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Raymond Badham</v>
       </c>
       <c r="F299" t="str">
-        <f>RIGHT(I299,LEN(I299)-FIND(": ", I299)-1)</f>
+        <f t="shared" si="2"/>
         <v>Darlene Zschech &amp; Paul Andrew</v>
       </c>
       <c r="I299" t="s">
         <v>433</v>
       </c>
       <c r="J299" t="str">
-        <f>LEFT(I299,FIND(" (",I299)-1)</f>
+        <f t="shared" si="3"/>
         <v>3. His Love</v>
       </c>
       <c r="K299" t="str">
-        <f>RIGHT(I299, LEN(I299)-FIND(" (",I299) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Raymond Badham) – Worship Leader: Darlene Zschech &amp; Paul Andrew</v>
       </c>
     </row>
@@ -9871,26 +10310,26 @@
         <v>4</v>
       </c>
       <c r="D300" t="str">
-        <f>RIGHT(J300, LEN(J300)-FIND(". ",J300)-1)</f>
+        <f t="shared" si="0"/>
         <v>Emmanuel</v>
       </c>
       <c r="E300" t="str">
-        <f>LEFT(K300,FIND(") ",K300) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Reuben Morgan</v>
       </c>
       <c r="F300" t="str">
-        <f>RIGHT(I300,LEN(I300)-FIND(": ", I300)-1)</f>
+        <f t="shared" si="2"/>
         <v>Darlene Zschech b. Reuben Morgan</v>
       </c>
       <c r="I300" t="s">
         <v>434</v>
       </c>
       <c r="J300" t="str">
-        <f>LEFT(I300,FIND(" (",I300)-1)</f>
+        <f t="shared" si="3"/>
         <v>4. Emmanuel</v>
       </c>
       <c r="K300" t="str">
-        <f>RIGHT(I300, LEN(I300)-FIND(" (",I300) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Reuben Morgan) – Worship Leaders: Darlene Zschech b. Reuben Morgan</v>
       </c>
     </row>
@@ -9905,26 +10344,26 @@
         <v>5</v>
       </c>
       <c r="D301" t="str">
-        <f>RIGHT(J301, LEN(J301)-FIND(". ",J301)-1)</f>
+        <f t="shared" si="0"/>
         <v>Saviour</v>
       </c>
       <c r="E301" t="str">
-        <f>LEFT(K301,FIND(") ",K301) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="F301" t="str">
-        <f>RIGHT(I301,LEN(I301)-FIND(": ", I301)-1)</f>
+        <f t="shared" si="2"/>
         <v>Miriam Webster b Darlene Zschech</v>
       </c>
       <c r="I301" t="s">
         <v>435</v>
       </c>
       <c r="J301" t="str">
-        <f>LEFT(I301,FIND(" (",I301)-1)</f>
+        <f t="shared" si="3"/>
         <v>5. Saviour</v>
       </c>
       <c r="K301" t="str">
-        <f>RIGHT(I301, LEN(I301)-FIND(" (",I301) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Darlene Zschech) – Worship Leaders: Miriam Webster b Darlene Zschech</v>
       </c>
     </row>
@@ -9939,26 +10378,26 @@
         <v>6</v>
       </c>
       <c r="D302" t="str">
-        <f>RIGHT(J302, LEN(J302)-FIND(". ",J302)-1)</f>
+        <f t="shared" si="0"/>
         <v>Wonderful God</v>
       </c>
       <c r="E302" t="str">
-        <f>LEFT(K302,FIND(") ",K302) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Ned Davies</v>
       </c>
       <c r="F302" t="str">
-        <f>RIGHT(I302,LEN(I302)-FIND(": ", I302)-1)</f>
+        <f t="shared" si="2"/>
         <v>Darlene Zschech, b. Joel Houston</v>
       </c>
       <c r="I302" t="s">
         <v>436</v>
       </c>
       <c r="J302" t="str">
-        <f>LEFT(I302,FIND(" (",I302)-1)</f>
+        <f t="shared" si="3"/>
         <v>6. Wonderful God</v>
       </c>
       <c r="K302" t="str">
-        <f>RIGHT(I302, LEN(I302)-FIND(" (",I302) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Ned Davies) – Worship Leader: Darlene Zschech, b. Joel Houston</v>
       </c>
     </row>
@@ -9973,26 +10412,26 @@
         <v>7</v>
       </c>
       <c r="D303" t="str">
-        <f>RIGHT(J303, LEN(J303)-FIND(". ",J303)-1)</f>
+        <f t="shared" si="0"/>
         <v>God He Reigns/All I Need Is You</v>
       </c>
       <c r="E303" t="str">
-        <f>LEFT(K303,FIND(") ",K303) - 1)</f>
+        <f t="shared" si="1"/>
         <v>chorus</v>
       </c>
       <c r="F303" t="str">
-        <f>RIGHT(I303,LEN(I303)-FIND(": ", I303)-1)</f>
+        <f t="shared" si="2"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="I303" t="s">
         <v>437</v>
       </c>
       <c r="J303" t="str">
-        <f>LEFT(I303,FIND(" (",I303)-1)</f>
+        <f t="shared" si="3"/>
         <v>7. God He Reigns/All I Need Is You</v>
       </c>
       <c r="K303" t="str">
-        <f>RIGHT(I303, LEN(I303)-FIND(" (",I303) - 1)</f>
+        <f t="shared" si="4"/>
         <v>chorus) (Marty Sampson) – Worship Leaders: Darlene Zschech</v>
       </c>
     </row>
@@ -10007,26 +10446,26 @@
         <v>8</v>
       </c>
       <c r="D304" t="str">
-        <f>RIGHT(J304, LEN(J304)-FIND(". ",J304)-1)</f>
+        <f t="shared" si="0"/>
         <v>Yours Is the Kingdom</v>
       </c>
       <c r="E304" t="str">
-        <f>LEFT(K304,FIND(") ",K304) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Joel Houston</v>
       </c>
       <c r="F304" t="str">
-        <f>RIGHT(I304,LEN(I304)-FIND(": ", I304)-1)</f>
+        <f t="shared" si="2"/>
         <v>Marty Sampson, b. Darlene Zschech</v>
       </c>
       <c r="I304" t="s">
         <v>438</v>
       </c>
       <c r="J304" t="str">
-        <f>LEFT(I304,FIND(" (",I304)-1)</f>
+        <f t="shared" si="3"/>
         <v>8. Yours Is the Kingdom</v>
       </c>
       <c r="K304" t="str">
-        <f>RIGHT(I304, LEN(I304)-FIND(" (",I304) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Joel Houston) – Worship Leaders: Marty Sampson, b. Darlene Zschech</v>
       </c>
     </row>
@@ -10041,26 +10480,26 @@
         <v>9</v>
       </c>
       <c r="D305" t="str">
-        <f>RIGHT(J305, LEN(J305)-FIND(". ",J305)-1)</f>
+        <f t="shared" si="0"/>
         <v>Welcome in This Place</v>
       </c>
       <c r="E305" t="str">
-        <f>LEFT(K305,FIND(") ",K305) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Miriam Webster</v>
       </c>
       <c r="F305" t="str">
-        <f>RIGHT(I305,LEN(I305)-FIND(": ", I305)-1)</f>
+        <f t="shared" si="2"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="I305" t="s">
         <v>439</v>
       </c>
       <c r="J305" t="str">
-        <f>LEFT(I305,FIND(" (",I305)-1)</f>
+        <f t="shared" si="3"/>
         <v>9. Welcome in This Place</v>
       </c>
       <c r="K305" t="str">
-        <f>RIGHT(I305, LEN(I305)-FIND(" (",I305) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Miriam Webster) – Worship Leader: Darlene Zschech</v>
       </c>
     </row>
@@ -10075,26 +10514,26 @@
         <v>10</v>
       </c>
       <c r="D306" t="str">
-        <f>RIGHT(J306, LEN(J306)-FIND(". ",J306)-1)</f>
+        <f t="shared" si="0"/>
         <v>Let Us Adore</v>
       </c>
       <c r="E306" t="str">
-        <f>LEFT(K306,FIND(") ",K306) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Reuben Morgan</v>
       </c>
       <c r="F306" t="str">
-        <f>RIGHT(I306,LEN(I306)-FIND(": ", I306)-1)</f>
+        <f t="shared" si="2"/>
         <v>Darlene Zschech b. Reuben Morgan</v>
       </c>
       <c r="I306" t="s">
         <v>440</v>
       </c>
       <c r="J306" t="str">
-        <f>LEFT(I306,FIND(" (",I306)-1)</f>
+        <f t="shared" si="3"/>
         <v>1. Let Us Adore</v>
       </c>
       <c r="K306" t="str">
-        <f>RIGHT(I306, LEN(I306)-FIND(" (",I306) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Reuben Morgan) – Worship Leaders: Darlene Zschech b. Reuben Morgan</v>
       </c>
     </row>
@@ -10109,26 +10548,26 @@
         <v>11</v>
       </c>
       <c r="D307" t="str">
-        <f>RIGHT(J307, LEN(J307)-FIND(". ",J307)-1)</f>
+        <f t="shared" si="0"/>
         <v>All for Love</v>
       </c>
       <c r="E307" t="str">
-        <f>LEFT(K307,FIND(") ",K307) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Mia Fieldes</v>
       </c>
       <c r="F307" t="str">
-        <f>RIGHT(I307,LEN(I307)-FIND(": ", I307)-1)</f>
+        <f t="shared" si="2"/>
         <v>Marcus Temu, Tulele Faletolu, Barry Southgate</v>
       </c>
       <c r="I307" t="s">
         <v>550</v>
       </c>
       <c r="J307" t="str">
-        <f>LEFT(I307,FIND(" (",I307)-1)</f>
+        <f t="shared" si="3"/>
         <v>2. All for Love</v>
       </c>
       <c r="K307" t="str">
-        <f>RIGHT(I307, LEN(I307)-FIND(" (",I307) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Mia Fieldes) – Worship Leaders: Marcus Temu, Tulele Faletolu, Barry Southgate</v>
       </c>
     </row>
@@ -10143,26 +10582,26 @@
         <v>12</v>
       </c>
       <c r="D308" t="str">
-        <f>RIGHT(J308, LEN(J308)-FIND(". ",J308)-1)</f>
+        <f t="shared" si="0"/>
         <v>Know You More</v>
       </c>
       <c r="E308" t="str">
-        <f>LEFT(K308,FIND(") ",K308) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="F308" t="str">
-        <f>RIGHT(I308,LEN(I308)-FIND(": ", I308)-1)</f>
+        <f t="shared" si="2"/>
         <v>Dee Uluirewa &amp; Darlene Zschech</v>
       </c>
       <c r="I308" t="s">
         <v>441</v>
       </c>
       <c r="J308" t="str">
-        <f>LEFT(I308,FIND(" (",I308)-1)</f>
+        <f t="shared" si="3"/>
         <v>3. Know You More</v>
       </c>
       <c r="K308" t="str">
-        <f>RIGHT(I308, LEN(I308)-FIND(" (",I308) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Darlene Zschech) – Worship Leaders: Dee Uluirewa &amp; Darlene Zschech</v>
       </c>
     </row>
@@ -10177,26 +10616,26 @@
         <v>13</v>
       </c>
       <c r="D309" t="str">
-        <f>RIGHT(J309, LEN(J309)-FIND(". ",J309)-1)</f>
+        <f t="shared" si="0"/>
         <v>There Is Nothing Like</v>
       </c>
       <c r="E309" t="str">
-        <f>LEFT(K309,FIND(") ",K309) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Marty Sampson &amp; Jonas Myrin</v>
       </c>
       <c r="F309" t="str">
-        <f>RIGHT(I309,LEN(I309)-FIND(": ", I309)-1)</f>
+        <f t="shared" si="2"/>
         <v>Marty Sampson</v>
       </c>
       <c r="I309" t="s">
         <v>442</v>
       </c>
       <c r="J309" t="str">
-        <f>LEFT(I309,FIND(" (",I309)-1)</f>
+        <f t="shared" si="3"/>
         <v>4. There Is Nothing Like</v>
       </c>
       <c r="K309" t="str">
-        <f>RIGHT(I309, LEN(I309)-FIND(" (",I309) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Marty Sampson &amp; Jonas Myrin) – Worship Leaders: Marty Sampson</v>
       </c>
     </row>
@@ -10211,26 +10650,26 @@
         <v>14</v>
       </c>
       <c r="D310" t="str">
-        <f>RIGHT(J310, LEN(J310)-FIND(". ",J310)-1)</f>
+        <f t="shared" si="0"/>
         <v>What the World Will Never Take</v>
       </c>
       <c r="E310" t="str">
-        <f>LEFT(K310,FIND(") ",K310) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Matt Crocker, Scott Ligertwood &amp; Marty Sampson</v>
       </c>
       <c r="F310" t="str">
-        <f>RIGHT(I310,LEN(I310)-FIND(": ", I310)-1)</f>
+        <f t="shared" si="2"/>
         <v>Marty Sampson &amp; Tulele Faletolu</v>
       </c>
       <c r="I310" t="s">
         <v>443</v>
       </c>
       <c r="J310" t="str">
-        <f>LEFT(I310,FIND(" (",I310)-1)</f>
+        <f t="shared" si="3"/>
         <v>5. What the World Will Never Take</v>
       </c>
       <c r="K310" t="str">
-        <f>RIGHT(I310, LEN(I310)-FIND(" (",I310) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Matt Crocker, Scott Ligertwood &amp; Marty Sampson) – Worship Leaders: Marty Sampson &amp; Tulele Faletolu</v>
       </c>
     </row>
@@ -10245,26 +10684,26 @@
         <v>15</v>
       </c>
       <c r="D311" t="str">
-        <f>RIGHT(J311, LEN(J311)-FIND(". ",J311)-1)</f>
+        <f t="shared" si="0"/>
         <v>Tell the World</v>
       </c>
       <c r="E311" t="str">
-        <f>LEFT(K311,FIND(") ",K311) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Jonathan Douglass, Joel Houston &amp; Marty Sampson</v>
       </c>
       <c r="F311" t="str">
-        <f>RIGHT(I311,LEN(I311)-FIND(": ", I311)-1)</f>
+        <f t="shared" si="2"/>
         <v>Joel Houston &amp; Jonathan Douglass, b. Darlene Zschech</v>
       </c>
       <c r="I311" t="s">
         <v>444</v>
       </c>
       <c r="J311" t="str">
-        <f>LEFT(I311,FIND(" (",I311)-1)</f>
+        <f t="shared" si="3"/>
         <v>6. Tell the World</v>
       </c>
       <c r="K311" t="str">
-        <f>RIGHT(I311, LEN(I311)-FIND(" (",I311) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Jonathan Douglass, Joel Houston &amp; Marty Sampson) – Worship Leaders: Joel Houston &amp; Jonathan Douglass, b. Darlene Zschech</v>
       </c>
     </row>
@@ -10279,26 +10718,26 @@
         <v>1</v>
       </c>
       <c r="D312" t="str">
-        <f>RIGHT(J312, LEN(J312)-FIND(". ",J312)-1)</f>
+        <f t="shared" si="0"/>
         <v>For All You've Done</v>
       </c>
       <c r="E312" t="str">
-        <f>LEFT(K312,FIND(") ",K312) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Reuben Morgan</v>
       </c>
       <c r="F312" t="str">
-        <f>RIGHT(I312,LEN(I312)-FIND(": ", I312)-1)</f>
+        <f t="shared" si="2"/>
         <v>Darlene Zschech &amp; Reuben Morgan - 5:26</v>
       </c>
       <c r="I312" t="s">
         <v>549</v>
       </c>
       <c r="J312" t="str">
-        <f>LEFT(I312,FIND(" (",I312)-1)</f>
+        <f t="shared" si="3"/>
         <v>1. For All You've Done</v>
       </c>
       <c r="K312" t="str">
-        <f>RIGHT(I312, LEN(I312)-FIND(" (",I312) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Reuben Morgan) - Worship Leaders: Darlene Zschech &amp; Reuben Morgan - 5:26</v>
       </c>
     </row>
@@ -10313,26 +10752,26 @@
         <v>2</v>
       </c>
       <c r="D313" t="str">
-        <f>RIGHT(J313, LEN(J313)-FIND(". ",J313)-1)</f>
+        <f t="shared" si="0"/>
         <v>One Way</v>
       </c>
       <c r="E313" t="str">
-        <f>LEFT(K313,FIND(") ",K313) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Jonathon Douglass &amp; Joel Houston</v>
       </c>
       <c r="F313" t="str">
-        <f>RIGHT(I313,LEN(I313)-FIND(": ", I313)-1)</f>
+        <f t="shared" si="2"/>
         <v>Jonathon Douglass &amp; Marty Sampson, b. Darlene Zschech - 3:43</v>
       </c>
       <c r="I313" t="s">
         <v>548</v>
       </c>
       <c r="J313" t="str">
-        <f>LEFT(I313,FIND(" (",I313)-1)</f>
+        <f t="shared" si="3"/>
         <v>2. One Way</v>
       </c>
       <c r="K313" t="str">
-        <f>RIGHT(I313, LEN(I313)-FIND(" (",I313) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Jonathon Douglass &amp; Joel Houston) Worship Leaders: Jonathon Douglass &amp; Marty Sampson, b. Darlene Zschech - 3:43</v>
       </c>
     </row>
@@ -10347,26 +10786,26 @@
         <v>3</v>
       </c>
       <c r="D314" t="str">
-        <f>RIGHT(J314, LEN(J314)-FIND(". ",J314)-1)</f>
+        <f t="shared" si="0"/>
         <v>Evermore</v>
       </c>
       <c r="E314" t="str">
-        <f>LEFT(K314,FIND(") ",K314) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Joel Houston</v>
       </c>
       <c r="F314" t="str">
-        <f>RIGHT(I314,LEN(I314)-FIND(": ", I314)-1)</f>
+        <f t="shared" si="2"/>
         <v>Marty Sampson, b. Darlene Zschech - 5:02</v>
       </c>
       <c r="I314" t="s">
         <v>445</v>
       </c>
       <c r="J314" t="str">
-        <f>LEFT(I314,FIND(" (",I314)-1)</f>
+        <f t="shared" si="3"/>
         <v>3. Evermore</v>
       </c>
       <c r="K314" t="str">
-        <f>RIGHT(I314, LEN(I314)-FIND(" (",I314) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Joel Houston) - Worship Leaders: Marty Sampson, b. Darlene Zschech - 5:02</v>
       </c>
     </row>
@@ -10381,26 +10820,26 @@
         <v>4</v>
       </c>
       <c r="D315" t="str">
-        <f>RIGHT(J315, LEN(J315)-FIND(". ",J315)-1)</f>
+        <f t="shared" si="0"/>
         <v>With All I Am</v>
       </c>
       <c r="E315" t="str">
-        <f>LEFT(K315,FIND(") ",K315) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Reuben Morgan</v>
       </c>
       <c r="F315" t="str">
-        <f>RIGHT(I315,LEN(I315)-FIND(": ", I315)-1)</f>
+        <f t="shared" si="2"/>
         <v>Darlene Zschech &amp; Reuben Morgan - 7:23</v>
       </c>
       <c r="I315" t="s">
         <v>446</v>
       </c>
       <c r="J315" t="str">
-        <f>LEFT(I315,FIND(" (",I315)-1)</f>
+        <f t="shared" si="3"/>
         <v>4. With All I Am</v>
       </c>
       <c r="K315" t="str">
-        <f>RIGHT(I315, LEN(I315)-FIND(" (",I315) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Reuben Morgan) - Worship Leaders: Darlene Zschech &amp; Reuben Morgan - 7:23</v>
       </c>
     </row>
@@ -10415,26 +10854,26 @@
         <v>5</v>
       </c>
       <c r="D316" t="str">
-        <f>RIGHT(J316, LEN(J316)-FIND(". ",J316)-1)</f>
+        <f t="shared" si="0"/>
         <v>Sing</v>
       </c>
       <c r="E316" t="str">
-        <f>LEFT(K316,FIND(") ",K316) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Your Love</v>
       </c>
       <c r="F316" t="str">
-        <f>RIGHT(I316,LEN(I316)-FIND(": ", I316)-1)</f>
+        <f t="shared" si="2"/>
         <v>Reuben Morgan, b. Darlene Zschech - 6:22</v>
       </c>
       <c r="I316" t="s">
         <v>447</v>
       </c>
       <c r="J316" t="str">
-        <f>LEFT(I316,FIND(" (",I316)-1)</f>
+        <f t="shared" si="3"/>
         <v>5. Sing</v>
       </c>
       <c r="K316" t="str">
-        <f>RIGHT(I316, LEN(I316)-FIND(" (",I316) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Your Love) (Reuben Morgan) - Worship Leader: Reuben Morgan, b. Darlene Zschech - 6:22</v>
       </c>
     </row>
@@ -10449,26 +10888,26 @@
         <v>6</v>
       </c>
       <c r="D317" t="str">
-        <f>RIGHT(J317, LEN(J317)-FIND(". ",J317)-1)</f>
+        <f t="shared" si="0"/>
         <v>Hallelujah</v>
       </c>
       <c r="E317" t="str">
-        <f>LEFT(K317,FIND(") ",K317) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Marty Sampson &amp; Jonas Myrin</v>
       </c>
       <c r="F317" t="str">
-        <f>RIGHT(I317,LEN(I317)-FIND(": ", I317)-1)</f>
+        <f t="shared" si="2"/>
         <v>Jonas Myrin b. Darlene Zschech - 9:05</v>
       </c>
       <c r="I317" t="s">
         <v>448</v>
       </c>
       <c r="J317" t="str">
-        <f>LEFT(I317,FIND(" (",I317)-1)</f>
+        <f t="shared" si="3"/>
         <v>6. Hallelujah</v>
       </c>
       <c r="K317" t="str">
-        <f>RIGHT(I317, LEN(I317)-FIND(" (",I317) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Marty Sampson &amp; Jonas Myrin) - Worship Leaders: Jonas Myrin b. Darlene Zschech - 9:05</v>
       </c>
     </row>
@@ -10483,26 +10922,26 @@
         <v>7</v>
       </c>
       <c r="D318" t="str">
-        <f>RIGHT(J318, LEN(J318)-FIND(". ",J318)-1)</f>
+        <f t="shared" si="0"/>
         <v>You Are Worthy</v>
       </c>
       <c r="E318" t="str">
-        <f>LEFT(K318,FIND(") ",K318) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="F318" t="str">
-        <f>RIGHT(I318,LEN(I318)-FIND(": ", I318)-1)</f>
+        <f t="shared" si="2"/>
         <v>Darlene Zschech - 6:15</v>
       </c>
       <c r="I318" t="s">
         <v>547</v>
       </c>
       <c r="J318" t="str">
-        <f>LEFT(I318,FIND(" (",I318)-1)</f>
+        <f t="shared" si="3"/>
         <v>7. You Are Worthy</v>
       </c>
       <c r="K318" t="str">
-        <f>RIGHT(I318, LEN(I318)-FIND(" (",I318) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Darlene Zschech) Worship Leader: Darlene Zschech - 6:15</v>
       </c>
     </row>
@@ -10517,26 +10956,26 @@
         <v>8</v>
       </c>
       <c r="D319" t="str">
-        <f>RIGHT(J319, LEN(J319)-FIND(". ",J319)-1)</f>
+        <f t="shared" si="0"/>
         <v>Home</v>
       </c>
       <c r="E319" t="str">
-        <f>LEFT(K319,FIND(") ",K319) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Marty Sampson</v>
       </c>
       <c r="F319" t="str">
-        <f>RIGHT(I319,LEN(I319)-FIND(": ", I319)-1)</f>
+        <f t="shared" si="2"/>
         <v>Marty Sampson - 4:58</v>
       </c>
       <c r="I319" t="s">
         <v>449</v>
       </c>
       <c r="J319" t="str">
-        <f>LEFT(I319,FIND(" (",I319)-1)</f>
+        <f t="shared" si="3"/>
         <v>8. Home</v>
       </c>
       <c r="K319" t="str">
-        <f>RIGHT(I319, LEN(I319)-FIND(" (",I319) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Marty Sampson) - Worship Leader: Marty Sampson - 4:58</v>
       </c>
     </row>
@@ -10551,26 +10990,26 @@
         <v>9</v>
       </c>
       <c r="D320" t="str">
-        <f>RIGHT(J320, LEN(J320)-FIND(". ",J320)-1)</f>
+        <f t="shared" si="0"/>
         <v>Forever and a Day</v>
       </c>
       <c r="E320" t="str">
-        <f>LEFT(K320,FIND(") ",K320) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Raymond Badham</v>
       </c>
       <c r="F320" t="str">
-        <f>RIGHT(I320,LEN(I320)-FIND(": ", I320)-1)</f>
+        <f t="shared" si="2"/>
         <v>Darlene Zschech, b. Marty Sampson - 4:55</v>
       </c>
       <c r="I320" t="s">
         <v>450</v>
       </c>
       <c r="J320" t="str">
-        <f>LEFT(I320,FIND(" (",I320)-1)</f>
+        <f t="shared" si="3"/>
         <v>1. Forever and a Day</v>
       </c>
       <c r="K320" t="str">
-        <f>RIGHT(I320, LEN(I320)-FIND(" (",I320) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Raymond Badham) - Worship Leader: Darlene Zschech, b. Marty Sampson - 4:55</v>
       </c>
     </row>
@@ -10585,26 +11024,26 @@
         <v>10</v>
       </c>
       <c r="D321" t="str">
-        <f>RIGHT(J321, LEN(J321)-FIND(". ",J321)-1)</f>
+        <f t="shared" si="0"/>
         <v>Jesus the Same</v>
       </c>
       <c r="E321" t="str">
-        <f>LEFT(K321,FIND(") ",K321) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Raymond Badham</v>
       </c>
       <c r="F321" t="str">
-        <f>RIGHT(I321,LEN(I321)-FIND(": ", I321)-1)</f>
+        <f t="shared" si="2"/>
         <v>Steve McPherson - 5:30</v>
       </c>
       <c r="I321" t="s">
         <v>451</v>
       </c>
       <c r="J321" t="str">
-        <f>LEFT(I321,FIND(" (",I321)-1)</f>
+        <f t="shared" si="3"/>
         <v>2. Jesus the Same</v>
       </c>
       <c r="K321" t="str">
-        <f>RIGHT(I321, LEN(I321)-FIND(" (",I321) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Raymond Badham) - Worship Leader: Steve McPherson - 5:30</v>
       </c>
     </row>
@@ -10619,26 +11058,26 @@
         <v>11</v>
       </c>
       <c r="D322" t="str">
-        <f>RIGHT(J322, LEN(J322)-FIND(". ",J322)-1)</f>
+        <f t="shared" si="0"/>
         <v>I Will Love</v>
       </c>
       <c r="E322" t="str">
-        <f>LEFT(K322,FIND(") ",K322) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Miriam Webster</v>
       </c>
       <c r="F322" t="str">
-        <f>RIGHT(I322,LEN(I322)-FIND(": ", I322)-1)</f>
+        <f t="shared" si="2"/>
         <v>Miriam Webster - 4:41</v>
       </c>
       <c r="I322" t="s">
         <v>452</v>
       </c>
       <c r="J322" t="str">
-        <f>LEFT(I322,FIND(" (",I322)-1)</f>
+        <f t="shared" si="3"/>
         <v>3. I Will Love</v>
       </c>
       <c r="K322" t="str">
-        <f>RIGHT(I322, LEN(I322)-FIND(" (",I322) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Miriam Webster) - Worship Leader: Miriam Webster - 4:41</v>
       </c>
     </row>
@@ -10653,26 +11092,26 @@
         <v>12</v>
       </c>
       <c r="D323" t="str">
-        <f>RIGHT(J323, LEN(J323)-FIND(". ",J323)-1)</f>
+        <f t="shared" si="0"/>
         <v>Take All of Me</v>
       </c>
       <c r="E323" t="str">
-        <f>LEFT(K323,FIND(") ",K323) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Marty Sampson</v>
       </c>
       <c r="F323" t="str">
-        <f>RIGHT(I323,LEN(I323)-FIND(": ", I323)-1)</f>
+        <f t="shared" si="2"/>
         <v>Marty Sampson, b. Darlene Zschech - 8:15</v>
       </c>
       <c r="I323" t="s">
         <v>453</v>
       </c>
       <c r="J323" t="str">
-        <f>LEFT(I323,FIND(" (",I323)-1)</f>
+        <f t="shared" si="3"/>
         <v>4. Take All of Me</v>
       </c>
       <c r="K323" t="str">
-        <f>RIGHT(I323, LEN(I323)-FIND(" (",I323) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Marty Sampson) - Worship Leader: Marty Sampson, b. Darlene Zschech - 8:15</v>
       </c>
     </row>
@@ -10687,26 +11126,26 @@
         <v>13</v>
       </c>
       <c r="D324" t="str">
-        <f>RIGHT(J324, LEN(J324)-FIND(". ",J324)-1)</f>
+        <f t="shared" si="0"/>
         <v>More Than Life</v>
       </c>
       <c r="E324" t="str">
-        <f>LEFT(K324,FIND(") ",K324) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Reuben Morgan</v>
       </c>
       <c r="F324" t="str">
-        <f>RIGHT(I324,LEN(I324)-FIND(": ", I324)-1)</f>
+        <f t="shared" si="2"/>
         <v>Tulele Faletolu &amp; Darlene Zschech - 8:52</v>
       </c>
       <c r="I324" t="s">
         <v>454</v>
       </c>
       <c r="J324" t="str">
-        <f>LEFT(I324,FIND(" (",I324)-1)</f>
+        <f t="shared" si="3"/>
         <v>5. More Than Life</v>
       </c>
       <c r="K324" t="str">
-        <f>RIGHT(I324, LEN(I324)-FIND(" (",I324) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Reuben Morgan) - Worship Leaders: Tulele Faletolu &amp; Darlene Zschech - 8:52</v>
       </c>
     </row>
@@ -10721,26 +11160,26 @@
         <v>14</v>
       </c>
       <c r="D325" t="str">
-        <f>RIGHT(J325, LEN(J325)-FIND(". ",J325)-1)</f>
+        <f t="shared" si="0"/>
         <v>Glorify Your Name</v>
       </c>
       <c r="E325" t="str">
-        <f>LEFT(K325,FIND(") ",K325) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Darlene Zschech &amp; David Holmes</v>
       </c>
       <c r="F325" t="str">
-        <f>RIGHT(I325,LEN(I325)-FIND(": ", I325)-1)</f>
+        <f t="shared" si="2"/>
         <v>Darlene Zschech - 7:02</v>
       </c>
       <c r="I325" t="s">
         <v>455</v>
       </c>
       <c r="J325" t="str">
-        <f>LEFT(I325,FIND(" (",I325)-1)</f>
+        <f t="shared" si="3"/>
         <v>6. Glorify Your Name</v>
       </c>
       <c r="K325" t="str">
-        <f>RIGHT(I325, LEN(I325)-FIND(" (",I325) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Darlene Zschech &amp; David Holmes) - Worship Leader: Darlene Zschech - 7:02</v>
       </c>
     </row>
@@ -10755,26 +11194,26 @@
         <v>15</v>
       </c>
       <c r="D326" t="str">
-        <f>RIGHT(J326, LEN(J326)-FIND(". ",J326)-1)</f>
+        <f t="shared" si="0"/>
         <v>To You Alone</v>
       </c>
       <c r="E326" t="str">
-        <f>LEFT(K326,FIND(") ",K326) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Reuben Morgan</v>
       </c>
       <c r="F326" t="str">
-        <f>RIGHT(I326,LEN(I326)-FIND(": ", I326)-1)</f>
+        <f t="shared" si="2"/>
         <v>Holly Dawson &amp; Darlene Zschech - 7:39</v>
       </c>
       <c r="I326" t="s">
         <v>456</v>
       </c>
       <c r="J326" t="str">
-        <f>LEFT(I326,FIND(" (",I326)-1)</f>
+        <f t="shared" si="3"/>
         <v>7. To You Alone</v>
       </c>
       <c r="K326" t="str">
-        <f>RIGHT(I326, LEN(I326)-FIND(" (",I326) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Reuben Morgan) - Worship Leaders: Holly Dawson &amp; Darlene Zschech - 7:39</v>
       </c>
     </row>
@@ -10789,26 +11228,26 @@
         <v>1</v>
       </c>
       <c r="D327" t="str">
-        <f>RIGHT(J327, LEN(J327)-FIND(". ",J327)-1)</f>
+        <f t="shared" si="0"/>
         <v>Better Than Life</v>
       </c>
       <c r="E327" t="str">
-        <f>LEFT(K327,FIND(") ",K327) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Marty Sampson</v>
       </c>
       <c r="F327" t="str">
-        <f>RIGHT(I327,LEN(I327)-FIND(": ", I327)-1)</f>
+        <f t="shared" si="2"/>
         <v>Marty Sampson</v>
       </c>
       <c r="I327" t="s">
         <v>546</v>
       </c>
       <c r="J327" t="str">
-        <f>LEFT(I327,FIND(" (",I327)-1)</f>
+        <f t="shared" si="3"/>
         <v>1. Better Than Life</v>
       </c>
       <c r="K327" t="str">
-        <f>RIGHT(I327, LEN(I327)-FIND(" (",I327) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Marty Sampson) – worship leader: Marty Sampson</v>
       </c>
     </row>
@@ -10823,26 +11262,26 @@
         <v>2</v>
       </c>
       <c r="D328" t="str">
-        <f>RIGHT(J328, LEN(J328)-FIND(". ",J328)-1)</f>
+        <f t="shared" si="0"/>
         <v>Glory</v>
       </c>
       <c r="E328" t="str">
-        <f>LEFT(K328,FIND(") ",K328) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Reuben Morgan</v>
       </c>
       <c r="F328" t="str">
-        <f>RIGHT(I328,LEN(I328)-FIND(": ", I328)-1)</f>
+        <f t="shared" si="2"/>
         <v>Darlene Zschech &amp; Reuben Morgan</v>
       </c>
       <c r="I328" t="s">
         <v>545</v>
       </c>
       <c r="J328" t="str">
-        <f>LEFT(I328,FIND(" (",I328)-1)</f>
+        <f t="shared" si="3"/>
         <v>2. Glory</v>
       </c>
       <c r="K328" t="str">
-        <f>RIGHT(I328, LEN(I328)-FIND(" (",I328) - 1)</f>
+        <f t="shared" si="4"/>
         <v>Reuben Morgan) – worship leader: Darlene Zschech &amp; Reuben Morgan</v>
       </c>
     </row>
@@ -10857,26 +11296,26 @@
         <v>3</v>
       </c>
       <c r="D329" t="str">
-        <f>RIGHT(J329, LEN(J329)-FIND(". ",J329)-1)</f>
+        <f t="shared" ref="D329:D360" si="5">RIGHT(J329, LEN(J329)-FIND(". ",J329)-1)</f>
         <v>Ever Living God</v>
       </c>
       <c r="E329" t="str">
-        <f>LEFT(K329,FIND(") ",K329) - 1)</f>
+        <f t="shared" ref="E329:E360" si="6">LEFT(K329,FIND(") ",K329) - 1)</f>
         <v>Raymond Badham</v>
       </c>
       <c r="F329" t="str">
-        <f>RIGHT(I329,LEN(I329)-FIND(": ", I329)-1)</f>
+        <f t="shared" ref="F329:F360" si="7">RIGHT(I329,LEN(I329)-FIND(": ", I329)-1)</f>
         <v>Darlene Zschech</v>
       </c>
       <c r="I329" t="s">
         <v>544</v>
       </c>
       <c r="J329" t="str">
-        <f>LEFT(I329,FIND(" (",I329)-1)</f>
+        <f t="shared" ref="J329:J360" si="8">LEFT(I329,FIND(" (",I329)-1)</f>
         <v>3. Ever Living God</v>
       </c>
       <c r="K329" t="str">
-        <f>RIGHT(I329, LEN(I329)-FIND(" (",I329) - 1)</f>
+        <f t="shared" ref="K329:K360" si="9">RIGHT(I329, LEN(I329)-FIND(" (",I329) - 1)</f>
         <v>Raymond Badham) – worship leader: Darlene Zschech</v>
       </c>
     </row>
@@ -10891,26 +11330,26 @@
         <v>4</v>
       </c>
       <c r="D330" t="str">
-        <f>RIGHT(J330, LEN(J330)-FIND(". ",J330)-1)</f>
+        <f t="shared" si="5"/>
         <v>Need You Here</v>
       </c>
       <c r="E330" t="str">
-        <f>LEFT(K330,FIND(") ",K330) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Morgan</v>
       </c>
       <c r="F330" t="str">
-        <f>RIGHT(I330,LEN(I330)-FIND(": ", I330)-1)</f>
+        <f t="shared" si="7"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="I330" t="s">
         <v>543</v>
       </c>
       <c r="J330" t="str">
-        <f>LEFT(I330,FIND(" (",I330)-1)</f>
+        <f t="shared" si="8"/>
         <v>4. Need You Here</v>
       </c>
       <c r="K330" t="str">
-        <f>RIGHT(I330, LEN(I330)-FIND(" (",I330) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Morgan) – worship leader: Darlene Zschech</v>
       </c>
     </row>
@@ -10925,26 +11364,26 @@
         <v>5</v>
       </c>
       <c r="D331" t="str">
-        <f>RIGHT(J331, LEN(J331)-FIND(". ",J331)-1)</f>
+        <f t="shared" si="5"/>
         <v>My Hope</v>
       </c>
       <c r="E331" t="str">
-        <f>LEFT(K331,FIND(") ",K331) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="F331" t="str">
-        <f>RIGHT(I331,LEN(I331)-FIND(": ", I331)-1)</f>
+        <f t="shared" si="7"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="I331" t="s">
         <v>542</v>
       </c>
       <c r="J331" t="str">
-        <f>LEFT(I331,FIND(" (",I331)-1)</f>
+        <f t="shared" si="8"/>
         <v>5. My Hope</v>
       </c>
       <c r="K331" t="str">
-        <f>RIGHT(I331, LEN(I331)-FIND(" (",I331) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Darlene Zschech) – worship leader: Darlene Zschech</v>
       </c>
     </row>
@@ -10959,26 +11398,26 @@
         <v>6</v>
       </c>
       <c r="D332" t="str">
-        <f>RIGHT(J332, LEN(J332)-FIND(". ",J332)-1)</f>
+        <f t="shared" si="5"/>
         <v>Still</v>
       </c>
       <c r="E332" t="str">
-        <f>LEFT(K332,FIND(") ",K332) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Morgan</v>
       </c>
       <c r="F332" t="str">
-        <f>RIGHT(I332,LEN(I332)-FIND(": ", I332)-1)</f>
+        <f t="shared" si="7"/>
         <v>Tulele Faletolu</v>
       </c>
       <c r="I332" t="s">
         <v>541</v>
       </c>
       <c r="J332" t="str">
-        <f>LEFT(I332,FIND(" (",I332)-1)</f>
+        <f t="shared" si="8"/>
         <v>6. Still</v>
       </c>
       <c r="K332" t="str">
-        <f>RIGHT(I332, LEN(I332)-FIND(" (",I332) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Morgan) – worship leader: Tulele Faletolu</v>
       </c>
     </row>
@@ -10993,26 +11432,26 @@
         <v>7</v>
       </c>
       <c r="D333" t="str">
-        <f>RIGHT(J333, LEN(J333)-FIND(". ",J333)-1)</f>
+        <f t="shared" si="5"/>
         <v>Angels</v>
       </c>
       <c r="E333" t="str">
-        <f>LEFT(K333,FIND(") ",K333) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Sampson</v>
       </c>
       <c r="F333" t="str">
-        <f>RIGHT(I333,LEN(I333)-FIND(": ", I333)-1)</f>
+        <f t="shared" si="7"/>
         <v>Marty Sampson &amp; Darlene Zschech</v>
       </c>
       <c r="I333" t="s">
         <v>540</v>
       </c>
       <c r="J333" t="str">
-        <f>LEFT(I333,FIND(" (",I333)-1)</f>
+        <f t="shared" si="8"/>
         <v>7. Angels</v>
       </c>
       <c r="K333" t="str">
-        <f>RIGHT(I333, LEN(I333)-FIND(" (",I333) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Sampson) – worship leaders: Marty Sampson &amp; Darlene Zschech</v>
       </c>
     </row>
@@ -11027,26 +11466,26 @@
         <v>8</v>
       </c>
       <c r="D334" t="str">
-        <f>RIGHT(J334, LEN(J334)-FIND(". ",J334)-1)</f>
+        <f t="shared" si="5"/>
         <v>Can't Stop Praising</v>
       </c>
       <c r="E334" t="str">
-        <f>LEFT(K334,FIND(") ",K334) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Tulele Faletolu &amp; Sampson</v>
       </c>
       <c r="F334" t="str">
-        <f>RIGHT(I334,LEN(I334)-FIND(": ", I334)-1)</f>
+        <f t="shared" si="7"/>
         <v>Tulele Faletolu</v>
       </c>
       <c r="I334" t="s">
         <v>539</v>
       </c>
       <c r="J334" t="str">
-        <f>LEFT(I334,FIND(" (",I334)-1)</f>
+        <f t="shared" si="8"/>
         <v>8. Can't Stop Praising</v>
       </c>
       <c r="K334" t="str">
-        <f>RIGHT(I334, LEN(I334)-FIND(" (",I334) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Tulele Faletolu &amp; Sampson) – worship leader: Tulele Faletolu</v>
       </c>
     </row>
@@ -11061,26 +11500,26 @@
         <v>9</v>
       </c>
       <c r="D335" t="str">
-        <f>RIGHT(J335, LEN(J335)-FIND(". ",J335)-1)</f>
+        <f t="shared" si="5"/>
         <v>You Are/You Are Lord</v>
       </c>
       <c r="E335" t="str">
-        <f>LEFT(K335,FIND(") ",K335) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Darlene Zschech, Jennifer Va'a</v>
       </c>
       <c r="F335" t="str">
-        <f>RIGHT(I335,LEN(I335)-FIND(": ", I335)-1)</f>
+        <f t="shared" si="7"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="I335" t="s">
         <v>538</v>
       </c>
       <c r="J335" t="str">
-        <f>LEFT(I335,FIND(" (",I335)-1)</f>
+        <f t="shared" si="8"/>
         <v>9. You Are/You Are Lord</v>
       </c>
       <c r="K335" t="str">
-        <f>RIGHT(I335, LEN(I335)-FIND(" (",I335) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Darlene Zschech, Jennifer Va'a) – worship leader: Darlene Zschech</v>
       </c>
     </row>
@@ -11095,26 +11534,26 @@
         <v>10</v>
       </c>
       <c r="D336" t="str">
-        <f>RIGHT(J336, LEN(J336)-FIND(". ",J336)-1)</f>
+        <f t="shared" si="5"/>
         <v>Here I Am to Worship/Call</v>
       </c>
       <c r="E336" t="str">
-        <f>LEFT(K336,FIND(") ",K336) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Tim Hughes, Darlene Zschech</v>
       </c>
       <c r="F336" t="str">
-        <f>RIGHT(I336,LEN(I336)-FIND(": ", I336)-1)</f>
+        <f t="shared" si="7"/>
         <v>Reuben Morgan &amp; Darlene Zschech</v>
       </c>
       <c r="I336" t="s">
         <v>537</v>
       </c>
       <c r="J336" t="str">
-        <f>LEFT(I336,FIND(" (",I336)-1)</f>
+        <f t="shared" si="8"/>
         <v>10. Here I Am to Worship/Call</v>
       </c>
       <c r="K336" t="str">
-        <f>RIGHT(I336, LEN(I336)-FIND(" (",I336) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Tim Hughes, Darlene Zschech) – worship leaders: Reuben Morgan &amp; Darlene Zschech</v>
       </c>
     </row>
@@ -11129,26 +11568,26 @@
         <v>11</v>
       </c>
       <c r="D337" t="str">
-        <f>RIGHT(J337, LEN(J337)-FIND(". ",J337)-1)</f>
+        <f t="shared" si="5"/>
         <v>Highest</v>
       </c>
       <c r="E337" t="str">
-        <f>LEFT(K337,FIND(") ",K337) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Morgan</v>
       </c>
       <c r="F337" t="str">
-        <f>RIGHT(I337,LEN(I337)-FIND(": ", I337)-1)</f>
+        <f t="shared" si="7"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="I337" t="s">
         <v>536</v>
       </c>
       <c r="J337" t="str">
-        <f>LEFT(I337,FIND(" (",I337)-1)</f>
+        <f t="shared" si="8"/>
         <v>11. Highest</v>
       </c>
       <c r="K337" t="str">
-        <f>RIGHT(I337, LEN(I337)-FIND(" (",I337) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Morgan) – worship leader: Darlene Zschech</v>
       </c>
     </row>
@@ -11163,26 +11602,26 @@
         <v>12</v>
       </c>
       <c r="D338" t="str">
-        <f>RIGHT(J338, LEN(J338)-FIND(". ",J338)-1)</f>
+        <f t="shared" si="5"/>
         <v>Song of Freedom</v>
       </c>
       <c r="E338" t="str">
-        <f>LEFT(K338,FIND(") ",K338) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Marty Sampson</v>
       </c>
       <c r="F338" t="str">
-        <f>RIGHT(I338,LEN(I338)-FIND(": ", I338)-1)</f>
+        <f t="shared" si="7"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="I338" t="s">
         <v>535</v>
       </c>
       <c r="J338" t="str">
-        <f>LEFT(I338,FIND(" (",I338)-1)</f>
+        <f t="shared" si="8"/>
         <v>1. Song of Freedom</v>
       </c>
       <c r="K338" t="str">
-        <f>RIGHT(I338, LEN(I338)-FIND(" (",I338) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Marty Sampson) – worship leader: Darlene Zschech</v>
       </c>
     </row>
@@ -11197,26 +11636,26 @@
         <v>13</v>
       </c>
       <c r="D339" t="str">
-        <f>RIGHT(J339, LEN(J339)-FIND(". ",J339)-1)</f>
+        <f t="shared" si="5"/>
         <v>Shout Your Fame</v>
       </c>
       <c r="E339" t="str">
-        <f>LEFT(K339,FIND(") ",K339) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Jonas Myrin, Natasha Bedingfield, Gio Galanti &amp; Paul Nevison</v>
       </c>
       <c r="F339" t="str">
-        <f>RIGHT(I339,LEN(I339)-FIND(": ", I339)-1)</f>
+        <f t="shared" si="7"/>
         <v>Steve McPherson</v>
       </c>
       <c r="I339" t="s">
         <v>534</v>
       </c>
       <c r="J339" t="str">
-        <f>LEFT(I339,FIND(" (",I339)-1)</f>
+        <f t="shared" si="8"/>
         <v>2. Shout Your Fame</v>
       </c>
       <c r="K339" t="str">
-        <f>RIGHT(I339, LEN(I339)-FIND(" (",I339) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Jonas Myrin, Natasha Bedingfield, Gio Galanti &amp; Paul Nevison) – worship leader: Steve McPherson</v>
       </c>
     </row>
@@ -11231,26 +11670,26 @@
         <v>14</v>
       </c>
       <c r="D340" t="str">
-        <f>RIGHT(J340, LEN(J340)-FIND(". ",J340)-1)</f>
+        <f t="shared" si="5"/>
         <v>Exceeding Joy</v>
       </c>
       <c r="E340" t="str">
-        <f>LEFT(K340,FIND(") ",K340) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Miriam Webster</v>
       </c>
       <c r="F340" t="str">
-        <f>RIGHT(I340,LEN(I340)-FIND(": ", I340)-1)</f>
+        <f t="shared" si="7"/>
         <v>Miriam Webster &amp; Darlene Zschech</v>
       </c>
       <c r="I340" t="s">
         <v>533</v>
       </c>
       <c r="J340" t="str">
-        <f>LEFT(I340,FIND(" (",I340)-1)</f>
+        <f t="shared" si="8"/>
         <v>3. Exceeding Joy</v>
       </c>
       <c r="K340" t="str">
-        <f>RIGHT(I340, LEN(I340)-FIND(" (",I340) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Miriam Webster) – worship leaders: Miriam Webster &amp; Darlene Zschech</v>
       </c>
     </row>
@@ -11265,26 +11704,26 @@
         <v>15</v>
       </c>
       <c r="D341" t="str">
-        <f>RIGHT(J341, LEN(J341)-FIND(". ",J341)-1)</f>
+        <f t="shared" si="5"/>
         <v>King of Love</v>
       </c>
       <c r="E341" t="str">
-        <f>LEFT(K341,FIND(") ",K341) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Tanya Riches</v>
       </c>
       <c r="F341" t="str">
-        <f>RIGHT(I341,LEN(I341)-FIND(": ", I341)-1)</f>
+        <f t="shared" si="7"/>
         <v>Steve McPherson &amp; Darlene Zschech</v>
       </c>
       <c r="I341" t="s">
         <v>532</v>
       </c>
       <c r="J341" t="str">
-        <f>LEFT(I341,FIND(" (",I341)-1)</f>
+        <f t="shared" si="8"/>
         <v>4. King of Love</v>
       </c>
       <c r="K341" t="str">
-        <f>RIGHT(I341, LEN(I341)-FIND(" (",I341) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Tanya Riches) – worship leaders: Steve McPherson &amp; Darlene Zschech</v>
       </c>
     </row>
@@ -11299,26 +11738,26 @@
         <v>16</v>
       </c>
       <c r="D342" t="str">
-        <f>RIGHT(J342, LEN(J342)-FIND(". ",J342)-1)</f>
+        <f t="shared" si="5"/>
         <v>To the Ends of the Earth</v>
       </c>
       <c r="E342" t="str">
-        <f>LEFT(K342,FIND(") ",K342) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Joel Houston &amp; Marty Sampson</v>
       </c>
       <c r="F342" t="str">
-        <f>RIGHT(I342,LEN(I342)-FIND(": ", I342)-1)</f>
+        <f t="shared" si="7"/>
         <v>Marty Sampson</v>
       </c>
       <c r="I342" t="s">
         <v>531</v>
       </c>
       <c r="J342" t="str">
-        <f>LEFT(I342,FIND(" (",I342)-1)</f>
+        <f t="shared" si="8"/>
         <v>5. To the Ends of the Earth</v>
       </c>
       <c r="K342" t="str">
-        <f>RIGHT(I342, LEN(I342)-FIND(" (",I342) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Joel Houston &amp; Marty Sampson) – worship leader: Marty Sampson</v>
       </c>
     </row>
@@ -11333,26 +11772,26 @@
         <v>17</v>
       </c>
       <c r="D343" t="str">
-        <f>RIGHT(J343, LEN(J343)-FIND(". ",J343)-1)</f>
+        <f t="shared" si="5"/>
         <v>Free</v>
       </c>
       <c r="E343" t="str">
-        <f>LEFT(K343,FIND(") ",K343) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Sampson</v>
       </c>
       <c r="F343" t="str">
-        <f>RIGHT(I343,LEN(I343)-FIND(": ", I343)-1)</f>
+        <f t="shared" si="7"/>
         <v>Tulele Faletolu, Joel Houston</v>
       </c>
       <c r="I343" t="s">
         <v>530</v>
       </c>
       <c r="J343" t="str">
-        <f>LEFT(I343,FIND(" (",I343)-1)</f>
+        <f t="shared" si="8"/>
         <v>6. Free</v>
       </c>
       <c r="K343" t="str">
-        <f>RIGHT(I343, LEN(I343)-FIND(" (",I343) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Sampson) – worship leaders: Tulele Faletolu, Joel Houston</v>
       </c>
     </row>
@@ -11367,26 +11806,26 @@
         <v>18</v>
       </c>
       <c r="D344" t="str">
-        <f>RIGHT(J344, LEN(J344)-FIND(". ",J344)-1)</f>
+        <f t="shared" si="5"/>
         <v>Highest</v>
       </c>
       <c r="E344" t="str">
-        <f>LEFT(K344,FIND(") ",K344) - 1)</f>
+        <f t="shared" si="6"/>
         <v>reprise</v>
       </c>
       <c r="F344" t="str">
-        <f>RIGHT(I344,LEN(I344)-FIND(": ", I344)-1)</f>
+        <f t="shared" si="7"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="I344" t="s">
         <v>529</v>
       </c>
       <c r="J344" t="str">
-        <f>LEFT(I344,FIND(" (",I344)-1)</f>
+        <f t="shared" si="8"/>
         <v>7. Highest</v>
       </c>
       <c r="K344" t="str">
-        <f>RIGHT(I344, LEN(I344)-FIND(" (",I344) - 1)</f>
+        <f t="shared" si="9"/>
         <v>reprise) – worship leader: Darlene Zschech</v>
       </c>
     </row>
@@ -11401,26 +11840,26 @@
         <v>1</v>
       </c>
       <c r="D345" t="str">
-        <f>RIGHT(J345, LEN(J345)-FIND(". ",J345)-1)</f>
+        <f t="shared" si="5"/>
         <v>Blessed</v>
       </c>
       <c r="E345" t="str">
-        <f>LEFT(K345,FIND(") ",K345) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Darlene Zschech, Reuben Morgan</v>
       </c>
       <c r="F345" t="str">
-        <f>RIGHT(I345,LEN(I345)-FIND(": ", I345)-1)</f>
+        <f t="shared" si="7"/>
         <v>Darlene Zschech, Reuben Morgan</v>
       </c>
       <c r="I345" t="s">
         <v>457</v>
       </c>
       <c r="J345" t="str">
-        <f>LEFT(I345,FIND(" (",I345)-1)</f>
+        <f t="shared" si="8"/>
         <v>1. Blessed</v>
       </c>
       <c r="K345" t="str">
-        <f>RIGHT(I345, LEN(I345)-FIND(" (",I345) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Darlene Zschech, Reuben Morgan) - lead vocals: Darlene Zschech, Reuben Morgan</v>
       </c>
     </row>
@@ -11435,26 +11874,26 @@
         <v>2</v>
       </c>
       <c r="D346" t="str">
-        <f>RIGHT(J346, LEN(J346)-FIND(". ",J346)-1)</f>
+        <f t="shared" si="5"/>
         <v>Now That You're Near</v>
       </c>
       <c r="E346" t="str">
-        <f>LEFT(K346,FIND(") ",K346) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Marty Sampson</v>
       </c>
       <c r="F346" t="str">
-        <f>RIGHT(I346,LEN(I346)-FIND(": ", I346)-1)</f>
+        <f t="shared" si="7"/>
         <v>Marty Sampson, b. Darlene Zschech</v>
       </c>
       <c r="I346" t="s">
         <v>458</v>
       </c>
       <c r="J346" t="str">
-        <f>LEFT(I346,FIND(" (",I346)-1)</f>
+        <f t="shared" si="8"/>
         <v>2. Now That You're Near</v>
       </c>
       <c r="K346" t="str">
-        <f>RIGHT(I346, LEN(I346)-FIND(" (",I346) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Marty Sampson) - lead vocals: Marty Sampson, b. Darlene Zschech</v>
       </c>
     </row>
@@ -11469,26 +11908,26 @@
         <v>3</v>
       </c>
       <c r="D347" t="str">
-        <f>RIGHT(J347, LEN(J347)-FIND(". ",J347)-1)</f>
+        <f t="shared" si="5"/>
         <v>Shout of the King</v>
       </c>
       <c r="E347" t="str">
-        <f>LEFT(K347,FIND(") ",K347) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Ned Davies</v>
       </c>
       <c r="F347" t="str">
-        <f>RIGHT(I347,LEN(I347)-FIND(": ", I347)-1)</f>
+        <f t="shared" si="7"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="I347" t="s">
         <v>459</v>
       </c>
       <c r="J347" t="str">
-        <f>LEFT(I347,FIND(" (",I347)-1)</f>
+        <f t="shared" si="8"/>
         <v>3. Shout of the King</v>
       </c>
       <c r="K347" t="str">
-        <f>RIGHT(I347, LEN(I347)-FIND(" (",I347) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Ned Davies) - lead vocals: Darlene Zschech</v>
       </c>
     </row>
@@ -11503,26 +11942,26 @@
         <v>4</v>
       </c>
       <c r="D348" t="str">
-        <f>RIGHT(J348, LEN(J348)-FIND(". ",J348)-1)</f>
+        <f t="shared" si="5"/>
         <v>Made Me Glad</v>
       </c>
       <c r="E348" t="str">
-        <f>LEFT(K348,FIND(") ",K348) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Miriam Webster</v>
       </c>
       <c r="F348" t="str">
-        <f>RIGHT(I348,LEN(I348)-FIND(": ", I348)-1)</f>
+        <f t="shared" si="7"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="I348" t="s">
         <v>460</v>
       </c>
       <c r="J348" t="str">
-        <f>LEFT(I348,FIND(" (",I348)-1)</f>
+        <f t="shared" si="8"/>
         <v>4. Made Me Glad</v>
       </c>
       <c r="K348" t="str">
-        <f>RIGHT(I348, LEN(I348)-FIND(" (",I348) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Miriam Webster) - lead vocals: Darlene Zschech</v>
       </c>
     </row>
@@ -11537,26 +11976,26 @@
         <v>5</v>
       </c>
       <c r="D349" t="str">
-        <f>RIGHT(J349, LEN(J349)-FIND(". ",J349)-1)</f>
+        <f t="shared" si="5"/>
         <v>Through It All</v>
       </c>
       <c r="E349" t="str">
-        <f>LEFT(K349,FIND(") ",K349) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Morgan</v>
       </c>
       <c r="F349" t="str">
-        <f>RIGHT(I349,LEN(I349)-FIND(": ", I349)-1)</f>
+        <f t="shared" si="7"/>
         <v>Darlene Zschech, b. Reuben Morgan</v>
       </c>
       <c r="I349" t="s">
         <v>461</v>
       </c>
       <c r="J349" t="str">
-        <f>LEFT(I349,FIND(" (",I349)-1)</f>
+        <f t="shared" si="8"/>
         <v>5. Through It All</v>
       </c>
       <c r="K349" t="str">
-        <f>RIGHT(I349, LEN(I349)-FIND(" (",I349) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Morgan) - lead vocals: Darlene Zschech, b. Reuben Morgan</v>
       </c>
     </row>
@@ -11571,26 +12010,26 @@
         <v>6</v>
       </c>
       <c r="D350" t="str">
-        <f>RIGHT(J350, LEN(J350)-FIND(". ",J350)-1)</f>
+        <f t="shared" si="5"/>
         <v>Son of God</v>
       </c>
       <c r="E350" t="str">
-        <f>LEFT(K350,FIND(") ",K350) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Lincoln Brewster and Marty Sampson</v>
       </c>
       <c r="F350" t="str">
-        <f>RIGHT(I350,LEN(I350)-FIND(": ", I350)-1)</f>
+        <f t="shared" si="7"/>
         <v>Marty Sampson, b. Darlene Zschech</v>
       </c>
       <c r="I350" t="s">
         <v>462</v>
       </c>
       <c r="J350" t="str">
-        <f>LEFT(I350,FIND(" (",I350)-1)</f>
+        <f t="shared" si="8"/>
         <v>6. Son of God</v>
       </c>
       <c r="K350" t="str">
-        <f>RIGHT(I350, LEN(I350)-FIND(" (",I350) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Lincoln Brewster and Marty Sampson) - lead vocals: Marty Sampson, b. Darlene Zschech</v>
       </c>
     </row>
@@ -11605,26 +12044,26 @@
         <v>7</v>
       </c>
       <c r="D351" t="str">
-        <f>RIGHT(J351, LEN(J351)-FIND(". ",J351)-1)</f>
+        <f t="shared" si="5"/>
         <v>One Desire</v>
       </c>
       <c r="E351" t="str">
-        <f>LEFT(K351,FIND(") ",K351) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Joel Houston</v>
       </c>
       <c r="F351" t="str">
-        <f>RIGHT(I351,LEN(I351)-FIND(": ", I351)-1)</f>
+        <f t="shared" si="7"/>
         <v>Marty Sampson, Darlene Zschech</v>
       </c>
       <c r="I351" t="s">
         <v>463</v>
       </c>
       <c r="J351" t="str">
-        <f>LEFT(I351,FIND(" (",I351)-1)</f>
+        <f t="shared" si="8"/>
         <v>7. One Desire</v>
       </c>
       <c r="K351" t="str">
-        <f>RIGHT(I351, LEN(I351)-FIND(" (",I351) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Joel Houston) - lead vocals: Marty Sampson, Darlene Zschech</v>
       </c>
     </row>
@@ -11639,26 +12078,26 @@
         <v>8</v>
       </c>
       <c r="D352" t="str">
-        <f>RIGHT(J352, LEN(J352)-FIND(". ",J352)-1)</f>
+        <f t="shared" si="5"/>
         <v>Magnificent</v>
       </c>
       <c r="E352" t="str">
-        <f>LEFT(K352,FIND(") ",K352) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Raymond Badham</v>
       </c>
       <c r="F352" t="str">
-        <f>RIGHT(I352,LEN(I352)-FIND(": ", I352)-1)</f>
+        <f t="shared" si="7"/>
         <v>Tulele Faletolu</v>
       </c>
       <c r="I352" t="s">
         <v>464</v>
       </c>
       <c r="J352" t="str">
-        <f>LEFT(I352,FIND(" (",I352)-1)</f>
+        <f t="shared" si="8"/>
         <v>8. Magnificent</v>
       </c>
       <c r="K352" t="str">
-        <f>RIGHT(I352, LEN(I352)-FIND(" (",I352) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Raymond Badham) - lead vocals: Tulele Faletolu</v>
       </c>
     </row>
@@ -11673,26 +12112,26 @@
         <v>9</v>
       </c>
       <c r="D353" t="str">
-        <f>RIGHT(J353, LEN(J353)-FIND(". ",J353)-1)</f>
+        <f t="shared" si="5"/>
         <v>I Adore</v>
       </c>
       <c r="E353" t="str">
-        <f>LEFT(K353,FIND(") ",K353) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Reuben Morgan</v>
       </c>
       <c r="F353" t="str">
-        <f>RIGHT(I353,LEN(I353)-FIND(": ", I353)-1)</f>
+        <f t="shared" si="7"/>
         <v>Darlene Zschech, b. Reuben Morgan</v>
       </c>
       <c r="I353" t="s">
         <v>465</v>
       </c>
       <c r="J353" t="str">
-        <f>LEFT(I353,FIND(" (",I353)-1)</f>
+        <f t="shared" si="8"/>
         <v>9. I Adore</v>
       </c>
       <c r="K353" t="str">
-        <f>RIGHT(I353, LEN(I353)-FIND(" (",I353) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Reuben Morgan) - lead vocals: Darlene Zschech, b. Reuben Morgan</v>
       </c>
     </row>
@@ -11707,26 +12146,26 @@
         <v>10</v>
       </c>
       <c r="D354" t="str">
-        <f>RIGHT(J354, LEN(J354)-FIND(". ",J354)-1)</f>
+        <f t="shared" si="5"/>
         <v>All I Do</v>
       </c>
       <c r="E354" t="str">
-        <f>LEFT(K354,FIND(") ",K354) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Gio Galanti, Natasha Bedingfield</v>
       </c>
       <c r="F354" t="str">
-        <f>RIGHT(I354,LEN(I354)-FIND(": ", I354)-1)</f>
+        <f t="shared" si="7"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="I354" t="s">
         <v>466</v>
       </c>
       <c r="J354" t="str">
-        <f>LEFT(I354,FIND(" (",I354)-1)</f>
+        <f t="shared" si="8"/>
         <v>10. All I Do</v>
       </c>
       <c r="K354" t="str">
-        <f>RIGHT(I354, LEN(I354)-FIND(" (",I354) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Gio Galanti, Natasha Bedingfield) - lead vocals: Darlene Zschech</v>
       </c>
     </row>
@@ -11741,26 +12180,26 @@
         <v>11</v>
       </c>
       <c r="D355" t="str">
-        <f>RIGHT(J355, LEN(J355)-FIND(". ",J355)-1)</f>
+        <f t="shared" si="5"/>
         <v>With You</v>
       </c>
       <c r="E355" t="str">
-        <f>LEFT(K355,FIND(") ",K355) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Reuben Morgan</v>
       </c>
       <c r="F355" t="str">
-        <f>RIGHT(I355,LEN(I355)-FIND(": ", I355)-1)</f>
+        <f t="shared" si="7"/>
         <v>Darlene Zschech, b. Reuben Morgan</v>
       </c>
       <c r="I355" t="s">
         <v>467</v>
       </c>
       <c r="J355" t="str">
-        <f>LEFT(I355,FIND(" (",I355)-1)</f>
+        <f t="shared" si="8"/>
         <v>11. With You</v>
       </c>
       <c r="K355" t="str">
-        <f>RIGHT(I355, LEN(I355)-FIND(" (",I355) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Reuben Morgan) - lead vocals: Darlene Zschech, b. Reuben Morgan</v>
       </c>
     </row>
@@ -11775,26 +12214,26 @@
         <v>12</v>
       </c>
       <c r="D356" t="str">
-        <f>RIGHT(J356, LEN(J356)-FIND(". ",J356)-1)</f>
+        <f t="shared" si="5"/>
         <v>Most High</v>
       </c>
       <c r="E356" t="str">
-        <f>LEFT(K356,FIND(") ",K356) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Reuben Morgan</v>
       </c>
       <c r="F356" t="str">
-        <f>RIGHT(I356,LEN(I356)-FIND(": ", I356)-1)</f>
+        <f t="shared" si="7"/>
         <v>Reuben Morgan, b. Darlene Zschech</v>
       </c>
       <c r="I356" t="s">
         <v>468</v>
       </c>
       <c r="J356" t="str">
-        <f>LEFT(I356,FIND(" (",I356)-1)</f>
+        <f t="shared" si="8"/>
         <v>12. Most High</v>
       </c>
       <c r="K356" t="str">
-        <f>RIGHT(I356, LEN(I356)-FIND(" (",I356) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Reuben Morgan) - lead vocals: Reuben Morgan, b. Darlene Zschech</v>
       </c>
     </row>
@@ -11809,26 +12248,26 @@
         <v>13</v>
       </c>
       <c r="D357" t="str">
-        <f>RIGHT(J357, LEN(J357)-FIND(". ",J357)-1)</f>
+        <f t="shared" si="5"/>
         <v>King of Majesty</v>
       </c>
       <c r="E357" t="str">
-        <f>LEFT(K357,FIND(") ",K357) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Marty Sampson</v>
       </c>
       <c r="F357" t="str">
-        <f>RIGHT(I357,LEN(I357)-FIND(": ", I357)-1)</f>
+        <f t="shared" si="7"/>
         <v>Tulele Faletolu, b. Darlene Zschech</v>
       </c>
       <c r="I357" t="s">
         <v>469</v>
       </c>
       <c r="J357" t="str">
-        <f>LEFT(I357,FIND(" (",I357)-1)</f>
+        <f t="shared" si="8"/>
         <v>13. King of Majesty</v>
       </c>
       <c r="K357" t="str">
-        <f>RIGHT(I357, LEN(I357)-FIND(" (",I357) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Marty Sampson) - lead vocals: Tulele Faletolu, b. Darlene Zschech</v>
       </c>
     </row>
@@ -11843,26 +12282,26 @@
         <v>14</v>
       </c>
       <c r="D358" t="str">
-        <f>RIGHT(J358, LEN(J358)-FIND(". ",J358)-1)</f>
+        <f t="shared" si="5"/>
         <v>All the Heavens</v>
       </c>
       <c r="E358" t="str">
-        <f>LEFT(K358,FIND(") ",K358) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Reuben Morgan</v>
       </c>
       <c r="F358" t="str">
-        <f>RIGHT(I358,LEN(I358)-FIND(": ", I358)-1)</f>
+        <f t="shared" si="7"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="I358" t="s">
         <v>470</v>
       </c>
       <c r="J358" t="str">
-        <f>LEFT(I358,FIND(" (",I358)-1)</f>
+        <f t="shared" si="8"/>
         <v>14. All the Heavens</v>
       </c>
       <c r="K358" t="str">
-        <f>RIGHT(I358, LEN(I358)-FIND(" (",I358) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Reuben Morgan) - lead vocals: Darlene Zschech</v>
       </c>
     </row>
@@ -11877,26 +12316,26 @@
         <v>1</v>
       </c>
       <c r="D359" t="str">
-        <f>RIGHT(J359, LEN(J359)-FIND(". ",J359)-1)</f>
+        <f t="shared" si="5"/>
         <v>Your Love Is Beautiful</v>
       </c>
       <c r="E359" t="str">
-        <f>LEFT(K359,FIND(") ",K359) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Reuben Morgan, Raymond Badham, Steve McPherson, Nigel Hendroff</v>
       </c>
       <c r="F359" t="str">
-        <f>RIGHT(I359,LEN(I359)-FIND(": ", I359)-1)</f>
+        <f t="shared" si="7"/>
         <v>Darlene Zschech - 4:38</v>
       </c>
       <c r="I359" t="s">
         <v>528</v>
       </c>
       <c r="J359" t="str">
-        <f>LEFT(I359,FIND(" (",I359)-1)</f>
+        <f t="shared" si="8"/>
         <v>1. Your Love Is Beautiful</v>
       </c>
       <c r="K359" t="str">
-        <f>RIGHT(I359, LEN(I359)-FIND(" (",I359) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Reuben Morgan, Raymond Badham, Steve McPherson, Nigel Hendroff) - worship leader: Darlene Zschech - 4:38</v>
       </c>
     </row>
@@ -11911,26 +12350,26 @@
         <v>2</v>
       </c>
       <c r="D360" t="str">
-        <f>RIGHT(J360, LEN(J360)-FIND(". ",J360)-1)</f>
+        <f t="shared" si="5"/>
         <v>God Is Great</v>
       </c>
       <c r="E360" t="str">
-        <f>LEFT(K360,FIND(") ",K360) - 1)</f>
+        <f t="shared" si="6"/>
         <v>Marty Sampson</v>
       </c>
       <c r="F360" t="str">
-        <f>RIGHT(I360,LEN(I360)-FIND(": ", I360)-1)</f>
+        <f t="shared" si="7"/>
         <v>Marty Sampson, b. Darlene Zschech - 4:56</v>
       </c>
       <c r="I360" t="s">
         <v>527</v>
       </c>
       <c r="J360" t="str">
-        <f>LEFT(I360,FIND(" (",I360)-1)</f>
+        <f t="shared" si="8"/>
         <v>2. God Is Great</v>
       </c>
       <c r="K360" t="str">
-        <f>RIGHT(I360, LEN(I360)-FIND(" (",I360) - 1)</f>
+        <f t="shared" si="9"/>
         <v>Marty Sampson) - worship leader: Marty Sampson, b. Darlene Zschech - 4:56</v>
       </c>
     </row>
@@ -11945,26 +12384,26 @@
         <v>3</v>
       </c>
       <c r="D361" t="str">
-        <f>RIGHT(J361, LEN(J361)-FIND(". ",J361)-1)</f>
+        <f t="shared" ref="D361:D385" si="10">RIGHT(J361, LEN(J361)-FIND(". ",J361)-1)</f>
         <v>All of My Days</v>
       </c>
       <c r="E361" t="str">
-        <f>LEFT(K361,FIND(") ",K361) - 1)</f>
+        <f t="shared" ref="E361:E385" si="11">LEFT(K361,FIND(") ",K361) - 1)</f>
         <v>Mark Stevens</v>
       </c>
       <c r="F361" t="str">
-        <f>RIGHT(I361,LEN(I361)-FIND(": ", I361)-1)</f>
+        <f t="shared" ref="F361:F385" si="12">RIGHT(I361,LEN(I361)-FIND(": ", I361)-1)</f>
         <v>Mark Stevens - 5:02</v>
       </c>
       <c r="I361" t="s">
         <v>471</v>
       </c>
       <c r="J361" t="str">
-        <f>LEFT(I361,FIND(" (",I361)-1)</f>
+        <f t="shared" ref="J361:J392" si="13">LEFT(I361,FIND(" (",I361)-1)</f>
         <v>3. All of My Days</v>
       </c>
       <c r="K361" t="str">
-        <f>RIGHT(I361, LEN(I361)-FIND(" (",I361) - 1)</f>
+        <f t="shared" ref="K361:K385" si="14">RIGHT(I361, LEN(I361)-FIND(" (",I361) - 1)</f>
         <v>Mark Stevens) - worship leader: Mark Stevens - 5:02</v>
       </c>
     </row>
@@ -11979,26 +12418,26 @@
         <v>4</v>
       </c>
       <c r="D362" t="str">
-        <f>RIGHT(J362, LEN(J362)-FIND(". ",J362)-1)</f>
+        <f t="shared" si="10"/>
         <v>Emmanuel</v>
       </c>
       <c r="E362" t="str">
-        <f>LEFT(K362,FIND(") ",K362) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Badham</v>
       </c>
       <c r="F362" t="str">
-        <f>RIGHT(I362,LEN(I362)-FIND(": ", I362)-1)</f>
+        <f t="shared" si="12"/>
         <v>Darlene Zschech - 6:48</v>
       </c>
       <c r="I362" t="s">
         <v>472</v>
       </c>
       <c r="J362" t="str">
-        <f>LEFT(I362,FIND(" (",I362)-1)</f>
+        <f t="shared" si="13"/>
         <v>4. Emmanuel</v>
       </c>
       <c r="K362" t="str">
-        <f>RIGHT(I362, LEN(I362)-FIND(" (",I362) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Badham) - worship leader: Darlene Zschech - 6:48</v>
       </c>
     </row>
@@ -12013,26 +12452,26 @@
         <v>5</v>
       </c>
       <c r="D363" t="str">
-        <f>RIGHT(J363, LEN(J363)-FIND(". ",J363)-1)</f>
+        <f t="shared" si="10"/>
         <v>You Stand Alone</v>
       </c>
       <c r="E363" t="str">
-        <f>LEFT(K363,FIND(") ",K363) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Stevens, McPherson</v>
       </c>
       <c r="F363" t="str">
-        <f>RIGHT(I363,LEN(I363)-FIND(": ", I363)-1)</f>
+        <f t="shared" si="12"/>
         <v>Steve McPherson, Mark Stevens - 4:48</v>
       </c>
       <c r="I363" t="s">
         <v>473</v>
       </c>
       <c r="J363" t="str">
-        <f>LEFT(I363,FIND(" (",I363)-1)</f>
+        <f t="shared" si="13"/>
         <v>5. You Stand Alone</v>
       </c>
       <c r="K363" t="str">
-        <f>RIGHT(I363, LEN(I363)-FIND(" (",I363) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Stevens, McPherson) - worship leaders: Steve McPherson, Mark Stevens - 4:48</v>
       </c>
     </row>
@@ -12047,26 +12486,26 @@
         <v>6</v>
       </c>
       <c r="D364" t="str">
-        <f>RIGHT(J364, LEN(J364)-FIND(". ",J364)-1)</f>
+        <f t="shared" si="10"/>
         <v>Irresistible</v>
       </c>
       <c r="E364" t="str">
-        <f>LEFT(K364,FIND(") ",K364) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="F364" t="str">
-        <f>RIGHT(I364,LEN(I364)-FIND(": ", I364)-1)</f>
+        <f t="shared" si="12"/>
         <v>Darlene Zschech - 6:05</v>
       </c>
       <c r="I364" t="s">
         <v>474</v>
       </c>
       <c r="J364" t="str">
-        <f>LEFT(I364,FIND(" (",I364)-1)</f>
+        <f t="shared" si="13"/>
         <v>6. Irresistible</v>
       </c>
       <c r="K364" t="str">
-        <f>RIGHT(I364, LEN(I364)-FIND(" (",I364) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Darlene Zschech) - worship leader: Darlene Zschech - 6:05</v>
       </c>
     </row>
@@ -12081,26 +12520,26 @@
         <v>7</v>
       </c>
       <c r="D365" t="str">
-        <f>RIGHT(J365, LEN(J365)-FIND(". ",J365)-1)</f>
+        <f t="shared" si="10"/>
         <v>You Are My World</v>
       </c>
       <c r="E365" t="str">
-        <f>LEFT(K365,FIND(") ",K365) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Sampson</v>
       </c>
       <c r="F365" t="str">
-        <f>RIGHT(I365,LEN(I365)-FIND(": ", I365)-1)</f>
+        <f t="shared" si="12"/>
         <v>Marty Sampson, b. Darlene Zschech - 6:31</v>
       </c>
       <c r="I365" t="s">
         <v>475</v>
       </c>
       <c r="J365" t="str">
-        <f>LEFT(I365,FIND(" (",I365)-1)</f>
+        <f t="shared" si="13"/>
         <v>7. You Are My World</v>
       </c>
       <c r="K365" t="str">
-        <f>RIGHT(I365, LEN(I365)-FIND(" (",I365) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Sampson) - worship leader: Marty Sampson, b. Darlene Zschech - 6:31</v>
       </c>
     </row>
@@ -12115,26 +12554,26 @@
         <v>8</v>
       </c>
       <c r="D366" t="str">
-        <f>RIGHT(J366, LEN(J366)-FIND(". ",J366)-1)</f>
+        <f t="shared" si="10"/>
         <v>Everything That Has Breath</v>
       </c>
       <c r="E366" t="str">
-        <f>LEFT(K366,FIND(") ",K366) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Morgan</v>
       </c>
       <c r="F366" t="str">
-        <f>RIGHT(I366,LEN(I366)-FIND(": ", I366)-1)</f>
+        <f t="shared" si="12"/>
         <v>Darlene Zschech - 4:22</v>
       </c>
       <c r="I366" t="s">
         <v>476</v>
       </c>
       <c r="J366" t="str">
-        <f>LEFT(I366,FIND(" (",I366)-1)</f>
+        <f t="shared" si="13"/>
         <v>8. Everything That Has Breath</v>
       </c>
       <c r="K366" t="str">
-        <f>RIGHT(I366, LEN(I366)-FIND(" (",I366) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Morgan) - worship leader: Darlene Zschech - 4:22</v>
       </c>
     </row>
@@ -12149,26 +12588,26 @@
         <v>9</v>
       </c>
       <c r="D367" t="str">
-        <f>RIGHT(J367, LEN(J367)-FIND(". ",J367)-1)</f>
+        <f t="shared" si="10"/>
         <v>God So Loved</v>
       </c>
       <c r="E367" t="str">
-        <f>LEFT(K367,FIND(") ",K367) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Morgan</v>
       </c>
       <c r="F367" t="str">
-        <f>RIGHT(I367,LEN(I367)-FIND(": ", I367)-1)</f>
+        <f t="shared" si="12"/>
         <v>Darlene Zschech - 5:54</v>
       </c>
       <c r="I367" t="s">
         <v>477</v>
       </c>
       <c r="J367" t="str">
-        <f>LEFT(I367,FIND(" (",I367)-1)</f>
+        <f t="shared" si="13"/>
         <v>9. God So Loved</v>
       </c>
       <c r="K367" t="str">
-        <f>RIGHT(I367, LEN(I367)-FIND(" (",I367) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Morgan) - worship leader: Darlene Zschech - 5:54</v>
       </c>
     </row>
@@ -12183,26 +12622,26 @@
         <v>10</v>
       </c>
       <c r="D368" t="str">
-        <f>RIGHT(J368, LEN(J368)-FIND(". ",J368)-1)</f>
+        <f t="shared" si="10"/>
         <v>To You</v>
       </c>
       <c r="E368" t="str">
-        <f>LEFT(K368,FIND(") ",K368) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Zschech</v>
       </c>
       <c r="F368" t="str">
-        <f>RIGHT(I368,LEN(I368)-FIND(": ", I368)-1)</f>
+        <f t="shared" si="12"/>
         <v>Darlene Zschech - 7:00</v>
       </c>
       <c r="I368" t="s">
         <v>478</v>
       </c>
       <c r="J368" t="str">
-        <f>LEFT(I368,FIND(" (",I368)-1)</f>
+        <f t="shared" si="13"/>
         <v>10. To You</v>
       </c>
       <c r="K368" t="str">
-        <f>RIGHT(I368, LEN(I368)-FIND(" (",I368) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Zschech) - worship leader: Darlene Zschech - 7:00</v>
       </c>
     </row>
@@ -12217,26 +12656,26 @@
         <v>11</v>
       </c>
       <c r="D369" t="str">
-        <f>RIGHT(J369, LEN(J369)-FIND(". ",J369)-1)</f>
+        <f t="shared" si="10"/>
         <v>Worthy Is the Lamb</v>
       </c>
       <c r="E369" t="str">
-        <f>LEFT(K369,FIND(") ",K369) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Zschech</v>
       </c>
       <c r="F369" t="str">
-        <f>RIGHT(I369,LEN(I369)-FIND(": ", I369)-1)</f>
+        <f t="shared" si="12"/>
         <v>Miriam Webster - 7:16</v>
       </c>
       <c r="I369" t="s">
         <v>526</v>
       </c>
       <c r="J369" t="str">
-        <f>LEFT(I369,FIND(" (",I369)-1)</f>
+        <f t="shared" si="13"/>
         <v>11. Worthy Is the Lamb</v>
       </c>
       <c r="K369" t="str">
-        <f>RIGHT(I369, LEN(I369)-FIND(" (",I369) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Zschech) - worship leader: Miriam Webster - 7:16</v>
       </c>
     </row>
@@ -12251,26 +12690,26 @@
         <v>12</v>
       </c>
       <c r="D370" t="str">
-        <f>RIGHT(J370, LEN(J370)-FIND(". ",J370)-1)</f>
+        <f t="shared" si="10"/>
         <v>Forever</v>
       </c>
       <c r="E370" t="str">
-        <f>LEFT(K370,FIND(") ",K370) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Sampson</v>
       </c>
       <c r="F370" t="str">
-        <f>RIGHT(I370,LEN(I370)-FIND(": ", I370)-1)</f>
+        <f t="shared" si="12"/>
         <v>Mark Stevens - 4:45</v>
       </c>
       <c r="I370" t="s">
         <v>479</v>
       </c>
       <c r="J370" t="str">
-        <f>LEFT(I370,FIND(" (",I370)-1)</f>
+        <f t="shared" si="13"/>
         <v>12. Forever</v>
       </c>
       <c r="K370" t="str">
-        <f>RIGHT(I370, LEN(I370)-FIND(" (",I370) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Sampson) - worship leader: Mark Stevens - 4:45</v>
       </c>
     </row>
@@ -12285,26 +12724,26 @@
         <v>13</v>
       </c>
       <c r="D371" t="str">
-        <f>RIGHT(J371, LEN(J371)-FIND(". ",J371)-1)</f>
+        <f t="shared" si="10"/>
         <v>My Best Friend</v>
       </c>
       <c r="E371" t="str">
-        <f>LEFT(K371,FIND(") ",K371) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Joel Houston, Sampson</v>
       </c>
       <c r="F371" t="str">
-        <f>RIGHT(I371,LEN(I371)-FIND(": ", I371)-1)</f>
+        <f t="shared" si="12"/>
         <v>Marty Sampson, b. Darlene Zschech - 5:19</v>
       </c>
       <c r="I371" t="s">
         <v>480</v>
       </c>
       <c r="J371" t="str">
-        <f>LEFT(I371,FIND(" (",I371)-1)</f>
+        <f t="shared" si="13"/>
         <v>13. My Best Friend</v>
       </c>
       <c r="K371" t="str">
-        <f>RIGHT(I371, LEN(I371)-FIND(" (",I371) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Joel Houston, Sampson) - worship leader: Marty Sampson, b. Darlene Zschech - 5:19</v>
       </c>
     </row>
@@ -12319,26 +12758,26 @@
         <v>1</v>
       </c>
       <c r="D372" t="str">
-        <f>RIGHT(J372, LEN(J372)-FIND(". ",J372)-1)</f>
+        <f t="shared" si="10"/>
         <v>One Day</v>
       </c>
       <c r="E372" t="str">
-        <f>LEFT(K372,FIND(") ",K372) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Reuben Morgan</v>
       </c>
       <c r="F372" t="str">
-        <f>RIGHT(I372,LEN(I372)-FIND(": ", I372)-1)</f>
+        <f t="shared" si="12"/>
         <v>Darlene Zschech &amp; Reuben Morgan</v>
       </c>
       <c r="I372" t="s">
         <v>525</v>
       </c>
       <c r="J372" t="str">
-        <f>LEFT(I372,FIND(" (",I372)-1)</f>
+        <f t="shared" si="13"/>
         <v>1. One Day</v>
       </c>
       <c r="K372" t="str">
-        <f>RIGHT(I372, LEN(I372)-FIND(" (",I372) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Reuben Morgan) Worship leaders: Darlene Zschech &amp; Reuben Morgan</v>
       </c>
     </row>
@@ -12353,26 +12792,26 @@
         <v>2</v>
       </c>
       <c r="D373" t="str">
-        <f>RIGHT(J373, LEN(J373)-FIND(". ",J373)-1)</f>
+        <f t="shared" si="10"/>
         <v>Faith</v>
       </c>
       <c r="E373" t="str">
-        <f>LEFT(K373,FIND(") ",K373) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Reuben Morgan</v>
       </c>
       <c r="F373" t="str">
-        <f>RIGHT(I373,LEN(I373)-FIND(": ", I373)-1)</f>
+        <f t="shared" si="12"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="I373" t="s">
         <v>524</v>
       </c>
       <c r="J373" t="str">
-        <f>LEFT(I373,FIND(" (",I373)-1)</f>
+        <f t="shared" si="13"/>
         <v>2. Faith</v>
       </c>
       <c r="K373" t="str">
-        <f>RIGHT(I373, LEN(I373)-FIND(" (",I373) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Reuben Morgan) Worship leader: Darlene Zschech</v>
       </c>
     </row>
@@ -12387,26 +12826,26 @@
         <v>3</v>
       </c>
       <c r="D374" t="str">
-        <f>RIGHT(J374, LEN(J374)-FIND(". ",J374)-1)</f>
+        <f t="shared" si="10"/>
         <v>Awesome in This Place</v>
       </c>
       <c r="E374" t="str">
-        <f>LEFT(K374,FIND(") ",K374) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Ned Davies</v>
       </c>
       <c r="F374" t="str">
-        <f>RIGHT(I374,LEN(I374)-FIND(": ", I374)-1)</f>
+        <f t="shared" si="12"/>
         <v>Darlene Zschech b. Steve McPherson</v>
       </c>
       <c r="I374" t="s">
         <v>523</v>
       </c>
       <c r="J374" t="str">
-        <f>LEFT(I374,FIND(" (",I374)-1)</f>
+        <f t="shared" si="13"/>
         <v>3. Awesome in This Place</v>
       </c>
       <c r="K374" t="str">
-        <f>RIGHT(I374, LEN(I374)-FIND(" (",I374) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Ned Davies) Worship leader: Darlene Zschech b. Steve McPherson</v>
       </c>
     </row>
@@ -12421,26 +12860,26 @@
         <v>4</v>
       </c>
       <c r="D375" t="str">
-        <f>RIGHT(J375, LEN(J375)-FIND(". ",J375)-1)</f>
+        <f t="shared" si="10"/>
         <v>Dwell in Your House</v>
       </c>
       <c r="E375" t="str">
-        <f>LEFT(K375,FIND(") ",K375) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Paul Ewing</v>
       </c>
       <c r="F375" t="str">
-        <f>RIGHT(I375,LEN(I375)-FIND(": ", I375)-1)</f>
+        <f t="shared" si="12"/>
         <v>Darlene Zschech &amp; Mark Stevens</v>
       </c>
       <c r="I375" t="s">
         <v>522</v>
       </c>
       <c r="J375" t="str">
-        <f>LEFT(I375,FIND(" (",I375)-1)</f>
+        <f t="shared" si="13"/>
         <v>4. Dwell in Your House</v>
       </c>
       <c r="K375" t="str">
-        <f>RIGHT(I375, LEN(I375)-FIND(" (",I375) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Paul Ewing) Worship leaders: Darlene Zschech &amp; Mark Stevens</v>
       </c>
     </row>
@@ -12455,26 +12894,26 @@
         <v>5</v>
       </c>
       <c r="D376" t="str">
-        <f>RIGHT(J376, LEN(J376)-FIND(". ",J376)-1)</f>
+        <f t="shared" si="10"/>
         <v>You Are Near</v>
       </c>
       <c r="E376" t="str">
-        <f>LEFT(K376,FIND(") ",K376) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Reuben Morgan</v>
       </c>
       <c r="F376" t="str">
-        <f>RIGHT(I376,LEN(I376)-FIND(": ", I376)-1)</f>
+        <f t="shared" si="12"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="I376" t="s">
         <v>521</v>
       </c>
       <c r="J376" t="str">
-        <f>LEFT(I376,FIND(" (",I376)-1)</f>
+        <f t="shared" si="13"/>
         <v>5. You Are Near</v>
       </c>
       <c r="K376" t="str">
-        <f>RIGHT(I376, LEN(I376)-FIND(" (",I376) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Reuben Morgan) Worship leader: Darlene Zschech</v>
       </c>
     </row>
@@ -12489,26 +12928,26 @@
         <v>6</v>
       </c>
       <c r="D377" t="str">
-        <f>RIGHT(J377, LEN(J377)-FIND(". ",J377)-1)</f>
+        <f t="shared" si="10"/>
         <v>I Simply Live for You</v>
       </c>
       <c r="E377" t="str">
-        <f>LEFT(K377,FIND(") ",K377) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Russell Fragar</v>
       </c>
       <c r="F377" t="str">
-        <f>RIGHT(I377,LEN(I377)-FIND(": ", I377)-1)</f>
+        <f t="shared" si="12"/>
         <v>Miriam Webster</v>
       </c>
       <c r="I377" t="s">
         <v>520</v>
       </c>
       <c r="J377" t="str">
-        <f>LEFT(I377,FIND(" (",I377)-1)</f>
+        <f t="shared" si="13"/>
         <v>6. I Simply Live for You</v>
       </c>
       <c r="K377" t="str">
-        <f>RIGHT(I377, LEN(I377)-FIND(" (",I377) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Russell Fragar) Worship leader: Miriam Webster</v>
       </c>
     </row>
@@ -12523,26 +12962,26 @@
         <v>7</v>
       </c>
       <c r="D378" t="str">
-        <f>RIGHT(J378, LEN(J378)-FIND(". ",J378)-1)</f>
+        <f t="shared" si="10"/>
         <v>Carry Me</v>
       </c>
       <c r="E378" t="str">
-        <f>LEFT(K378,FIND(") ",K378) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Marty Sampson</v>
       </c>
       <c r="F378" t="str">
-        <f>RIGHT(I378,LEN(I378)-FIND(": ", I378)-1)</f>
+        <f t="shared" si="12"/>
         <v>Marty Sampson</v>
       </c>
       <c r="I378" t="s">
         <v>519</v>
       </c>
       <c r="J378" t="str">
-        <f>LEFT(I378,FIND(" (",I378)-1)</f>
+        <f t="shared" si="13"/>
         <v>7. Carry Me</v>
       </c>
       <c r="K378" t="str">
-        <f>RIGHT(I378, LEN(I378)-FIND(" (",I378) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Marty Sampson) Worship leader: Marty Sampson</v>
       </c>
     </row>
@@ -12557,26 +12996,26 @@
         <v>8</v>
       </c>
       <c r="D379" t="str">
-        <f>RIGHT(J379, LEN(J379)-FIND(". ",J379)-1)</f>
+        <f t="shared" si="10"/>
         <v>Lifted Me High Again</v>
       </c>
       <c r="E379" t="str">
-        <f>LEFT(K379,FIND(") ",K379) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Reuben Morgan</v>
       </c>
       <c r="F379" t="str">
-        <f>RIGHT(I379,LEN(I379)-FIND(": ", I379)-1)</f>
+        <f t="shared" si="12"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="I379" t="s">
         <v>518</v>
       </c>
       <c r="J379" t="str">
-        <f>LEFT(I379,FIND(" (",I379)-1)</f>
+        <f t="shared" si="13"/>
         <v>8. Lifted Me High Again</v>
       </c>
       <c r="K379" t="str">
-        <f>RIGHT(I379, LEN(I379)-FIND(" (",I379) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Reuben Morgan) Worship leader: Darlene Zschech</v>
       </c>
     </row>
@@ -12591,26 +13030,26 @@
         <v>9</v>
       </c>
       <c r="D380" t="str">
-        <f>RIGHT(J380, LEN(J380)-FIND(". ",J380)-1)</f>
+        <f t="shared" si="10"/>
         <v>Here to Eternity</v>
       </c>
       <c r="E380" t="str">
-        <f>LEFT(K380,FIND(") ",K380) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Darlene Zschech, David Moyse</v>
       </c>
       <c r="F380" t="str">
-        <f>RIGHT(I380,LEN(I380)-FIND(": ", I380)-1)</f>
+        <f t="shared" si="12"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="I380" t="s">
         <v>517</v>
       </c>
       <c r="J380" t="str">
-        <f>LEFT(I380,FIND(" (",I380)-1)</f>
+        <f t="shared" si="13"/>
         <v>9. Here to Eternity</v>
       </c>
       <c r="K380" t="str">
-        <f>RIGHT(I380, LEN(I380)-FIND(" (",I380) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Darlene Zschech, David Moyse) Worship leader: Darlene Zschech</v>
       </c>
     </row>
@@ -12625,26 +13064,26 @@
         <v>10</v>
       </c>
       <c r="D381" t="str">
-        <f>RIGHT(J381, LEN(J381)-FIND(". ",J381)-1)</f>
+        <f t="shared" si="10"/>
         <v>For This Cause</v>
       </c>
       <c r="E381" t="str">
-        <f>LEFT(K381,FIND(") ",K381) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Joel Houston</v>
       </c>
       <c r="F381" t="str">
-        <f>RIGHT(I381,LEN(I381)-FIND(": ", I381)-1)</f>
+        <f t="shared" si="12"/>
         <v>Darlene Zschech &amp; Reuben Morgan</v>
       </c>
       <c r="I381" t="s">
         <v>516</v>
       </c>
       <c r="J381" t="str">
-        <f>LEFT(I381,FIND(" (",I381)-1)</f>
+        <f t="shared" si="13"/>
         <v>10. For This Cause</v>
       </c>
       <c r="K381" t="str">
-        <f>RIGHT(I381, LEN(I381)-FIND(" (",I381) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Joel Houston) Worship leaders: Darlene Zschech &amp; Reuben Morgan</v>
       </c>
     </row>
@@ -12659,26 +13098,26 @@
         <v>11</v>
       </c>
       <c r="D382" t="str">
-        <f>RIGHT(J382, LEN(J382)-FIND(". ",J382)-1)</f>
+        <f t="shared" si="10"/>
         <v>Reaching for You</v>
       </c>
       <c r="E382" t="str">
-        <f>LEFT(K382,FIND(") ",K382) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Raymond Badham</v>
       </c>
       <c r="F382" t="str">
-        <f>RIGHT(I382,LEN(I382)-FIND(": ", I382)-1)</f>
+        <f t="shared" si="12"/>
         <v>Rob Eastwood</v>
       </c>
       <c r="I382" t="s">
         <v>515</v>
       </c>
       <c r="J382" t="str">
-        <f>LEFT(I382,FIND(" (",I382)-1)</f>
+        <f t="shared" si="13"/>
         <v>11. Reaching for You</v>
       </c>
       <c r="K382" t="str">
-        <f>RIGHT(I382, LEN(I382)-FIND(" (",I382) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Raymond Badham) Worship leader: Rob Eastwood</v>
       </c>
     </row>
@@ -12693,26 +13132,26 @@
         <v>12</v>
       </c>
       <c r="D383" t="str">
-        <f>RIGHT(J383, LEN(J383)-FIND(". ",J383)-1)</f>
+        <f t="shared" si="10"/>
         <v>It Is You</v>
       </c>
       <c r="E383" t="str">
-        <f>LEFT(K383,FIND(") ",K383) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="F383" t="str">
-        <f>RIGHT(I383,LEN(I383)-FIND(": ", I383)-1)</f>
+        <f t="shared" si="12"/>
         <v>Darlene Zschech</v>
       </c>
       <c r="I383" t="s">
         <v>514</v>
       </c>
       <c r="J383" t="str">
-        <f>LEFT(I383,FIND(" (",I383)-1)</f>
+        <f t="shared" si="13"/>
         <v>12. It Is You</v>
       </c>
       <c r="K383" t="str">
-        <f>RIGHT(I383, LEN(I383)-FIND(" (",I383) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Darlene Zschech) Worship leader: Darlene Zschech</v>
       </c>
     </row>
@@ -12727,26 +13166,26 @@
         <v>13</v>
       </c>
       <c r="D384" t="str">
-        <f>RIGHT(J384, LEN(J384)-FIND(". ",J384)-1)</f>
+        <f t="shared" si="10"/>
         <v>Believe</v>
       </c>
       <c r="E384" t="str">
-        <f>LEFT(K384,FIND(") ",K384) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Donna Lasit</v>
       </c>
       <c r="F384" t="str">
-        <f>RIGHT(I384,LEN(I384)-FIND(": ", I384)-1)</f>
+        <f t="shared" si="12"/>
         <v>Darlene Zschech &amp; Katrina Peoples</v>
       </c>
       <c r="I384" t="s">
         <v>513</v>
       </c>
       <c r="J384" t="str">
-        <f>LEFT(I384,FIND(" (",I384)-1)</f>
+        <f t="shared" si="13"/>
         <v>13. Believe</v>
       </c>
       <c r="K384" t="str">
-        <f>RIGHT(I384, LEN(I384)-FIND(" (",I384) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Donna Lasit) Worship leader: Darlene Zschech &amp; Katrina Peoples</v>
       </c>
     </row>
@@ -12761,36 +13200,2077 @@
         <v>14</v>
       </c>
       <c r="D385" t="str">
-        <f>RIGHT(J385, LEN(J385)-FIND(". ",J385)-1)</f>
+        <f t="shared" si="10"/>
         <v>Everyday</v>
       </c>
       <c r="E385" t="str">
-        <f>LEFT(K385,FIND(") ",K385) - 1)</f>
+        <f t="shared" si="11"/>
         <v>Joel Houston</v>
       </c>
       <c r="F385" t="str">
-        <f>RIGHT(I385,LEN(I385)-FIND(": ", I385)-1)</f>
+        <f t="shared" si="12"/>
         <v>Mark Stevens b. Darlene Zschech</v>
       </c>
       <c r="I385" t="s">
         <v>512</v>
       </c>
       <c r="J385" t="str">
-        <f>LEFT(I385,FIND(" (",I385)-1)</f>
+        <f t="shared" si="13"/>
         <v>14. Everyday</v>
       </c>
       <c r="K385" t="str">
-        <f>RIGHT(I385, LEN(I385)-FIND(" (",I385) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Joel Houston) Worship leader: Mark Stevens b. Darlene Zschech</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>1999</v>
+      </c>
+      <c r="B386" t="s">
+        <v>7</v>
+      </c>
+      <c r="D386" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>1999</v>
+      </c>
+      <c r="B387" t="s">
+        <v>7</v>
+      </c>
+      <c r="D387" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>1999</v>
+      </c>
+      <c r="B388" t="s">
+        <v>7</v>
+      </c>
+      <c r="D388" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>1999</v>
+      </c>
+      <c r="B389" t="s">
+        <v>7</v>
+      </c>
+      <c r="D389" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>1999</v>
+      </c>
+      <c r="B390" t="s">
+        <v>7</v>
+      </c>
+      <c r="D390" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>1999</v>
+      </c>
+      <c r="B391" t="s">
+        <v>7</v>
+      </c>
+      <c r="D391" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>1999</v>
+      </c>
+      <c r="B392" t="s">
+        <v>7</v>
+      </c>
+      <c r="D392" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>1999</v>
+      </c>
+      <c r="B393" t="s">
+        <v>7</v>
+      </c>
+      <c r="D393" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>1999</v>
+      </c>
+      <c r="B394" t="s">
+        <v>7</v>
+      </c>
+      <c r="D394" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>1999</v>
+      </c>
+      <c r="B395" t="s">
+        <v>7</v>
+      </c>
+      <c r="D395" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>1999</v>
+      </c>
+      <c r="B396" t="s">
+        <v>7</v>
+      </c>
+      <c r="D396" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>1999</v>
+      </c>
+      <c r="B397" t="s">
+        <v>7</v>
+      </c>
+      <c r="D397" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>1999</v>
+      </c>
+      <c r="B398" t="s">
+        <v>7</v>
+      </c>
+      <c r="D398" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>1999</v>
+      </c>
+      <c r="B399" t="s">
+        <v>7</v>
+      </c>
+      <c r="D399" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>1998</v>
+      </c>
+      <c r="B400" t="s">
+        <v>6</v>
+      </c>
+      <c r="D400" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>1998</v>
+      </c>
+      <c r="B401" t="s">
+        <v>6</v>
+      </c>
+      <c r="D401" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>1998</v>
+      </c>
+      <c r="B402" t="s">
+        <v>6</v>
+      </c>
+      <c r="D402" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>1998</v>
+      </c>
+      <c r="B403" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>1998</v>
+      </c>
+      <c r="B404" t="s">
+        <v>6</v>
+      </c>
+      <c r="D404" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>1998</v>
+      </c>
+      <c r="B405" t="s">
+        <v>6</v>
+      </c>
+      <c r="D405" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>1998</v>
+      </c>
+      <c r="B406" t="s">
+        <v>6</v>
+      </c>
+      <c r="D406" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>1998</v>
+      </c>
+      <c r="B407" t="s">
+        <v>6</v>
+      </c>
+      <c r="D407" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>1998</v>
+      </c>
+      <c r="B408" t="s">
+        <v>6</v>
+      </c>
+      <c r="D408" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>1998</v>
+      </c>
+      <c r="B409" t="s">
+        <v>6</v>
+      </c>
+      <c r="D409" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>1998</v>
+      </c>
+      <c r="B410" t="s">
+        <v>6</v>
+      </c>
+      <c r="D410" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>1998</v>
+      </c>
+      <c r="B411" t="s">
+        <v>6</v>
+      </c>
+      <c r="D411" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>1998</v>
+      </c>
+      <c r="B412" t="s">
+        <v>6</v>
+      </c>
+      <c r="D412" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>1998</v>
+      </c>
+      <c r="B413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D413" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>1998</v>
+      </c>
+      <c r="B414" t="s">
+        <v>6</v>
+      </c>
+      <c r="D414" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>1997</v>
+      </c>
+      <c r="B415" t="s">
+        <v>5</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415" t="s">
+        <v>5</v>
+      </c>
+      <c r="E415" s="2">
+        <v>0.19027777777777777</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>1997</v>
+      </c>
+      <c r="B416" t="s">
+        <v>5</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+      <c r="D416" t="s">
+        <v>580</v>
+      </c>
+      <c r="E416" s="2">
+        <v>0.13125000000000001</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>1997</v>
+      </c>
+      <c r="B417" t="s">
+        <v>5</v>
+      </c>
+      <c r="C417">
+        <v>3</v>
+      </c>
+      <c r="D417" t="s">
+        <v>581</v>
+      </c>
+      <c r="E417" s="2">
+        <v>0.1986111111111111</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>1997</v>
+      </c>
+      <c r="B418" t="s">
+        <v>5</v>
+      </c>
+      <c r="C418">
+        <v>4</v>
+      </c>
+      <c r="D418" t="s">
+        <v>582</v>
+      </c>
+      <c r="E418" s="2">
+        <v>0.22361111111111109</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>1997</v>
+      </c>
+      <c r="B419" t="s">
+        <v>5</v>
+      </c>
+      <c r="C419">
+        <v>5</v>
+      </c>
+      <c r="D419" t="s">
+        <v>583</v>
+      </c>
+      <c r="E419" s="2">
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>1997</v>
+      </c>
+      <c r="B420" t="s">
+        <v>5</v>
+      </c>
+      <c r="C420">
+        <v>6</v>
+      </c>
+      <c r="D420" t="s">
+        <v>584</v>
+      </c>
+      <c r="E420" s="2">
+        <v>0.25555555555555559</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>1997</v>
+      </c>
+      <c r="B421" t="s">
+        <v>5</v>
+      </c>
+      <c r="C421">
+        <v>7</v>
+      </c>
+      <c r="D421" t="s">
+        <v>585</v>
+      </c>
+      <c r="E421" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>1997</v>
+      </c>
+      <c r="B422" t="s">
+        <v>5</v>
+      </c>
+      <c r="C422">
+        <v>8</v>
+      </c>
+      <c r="D422" t="s">
+        <v>586</v>
+      </c>
+      <c r="E422" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>1997</v>
+      </c>
+      <c r="B423" t="s">
+        <v>5</v>
+      </c>
+      <c r="C423">
+        <v>9</v>
+      </c>
+      <c r="D423" t="s">
+        <v>587</v>
+      </c>
+      <c r="E423" s="2">
+        <v>0.11319444444444444</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>1997</v>
+      </c>
+      <c r="B424" t="s">
+        <v>5</v>
+      </c>
+      <c r="C424">
+        <v>10</v>
+      </c>
+      <c r="D424" t="s">
+        <v>588</v>
+      </c>
+      <c r="E424" s="2">
+        <v>0.1076388888888889</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>1997</v>
+      </c>
+      <c r="B425" t="s">
+        <v>5</v>
+      </c>
+      <c r="C425">
+        <v>11</v>
+      </c>
+      <c r="D425" t="s">
+        <v>589</v>
+      </c>
+      <c r="E425" s="2">
+        <v>0.22083333333333333</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>1997</v>
+      </c>
+      <c r="B426" t="s">
+        <v>5</v>
+      </c>
+      <c r="C426">
+        <v>12</v>
+      </c>
+      <c r="D426" t="s">
+        <v>590</v>
+      </c>
+      <c r="E426" s="2">
+        <v>0.27569444444444446</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>1997</v>
+      </c>
+      <c r="B427" t="s">
+        <v>5</v>
+      </c>
+      <c r="C427">
+        <v>13</v>
+      </c>
+      <c r="D427" t="s">
+        <v>591</v>
+      </c>
+      <c r="E427" s="2">
+        <v>0.23402777777777781</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>1997</v>
+      </c>
+      <c r="B428" t="s">
+        <v>5</v>
+      </c>
+      <c r="C428">
+        <v>14</v>
+      </c>
+      <c r="D428" t="s">
+        <v>592</v>
+      </c>
+      <c r="E428" s="2">
+        <v>0.18819444444444444</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>1997</v>
+      </c>
+      <c r="B429" t="s">
+        <v>5</v>
+      </c>
+      <c r="C429">
+        <v>15</v>
+      </c>
+      <c r="D429" t="s">
+        <v>593</v>
+      </c>
+      <c r="E429" s="2">
+        <v>0.12222222222222223</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>1996</v>
+      </c>
+      <c r="B430" t="s">
+        <v>4</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>1996</v>
+      </c>
+      <c r="B431" t="s">
+        <v>4</v>
+      </c>
+      <c r="C431">
+        <v>2</v>
+      </c>
+      <c r="D431" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>1996</v>
+      </c>
+      <c r="B432" t="s">
+        <v>4</v>
+      </c>
+      <c r="C432">
+        <v>3</v>
+      </c>
+      <c r="D432" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>1996</v>
+      </c>
+      <c r="B433" t="s">
+        <v>4</v>
+      </c>
+      <c r="C433">
+        <v>4</v>
+      </c>
+      <c r="D433" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>1996</v>
+      </c>
+      <c r="B434" t="s">
+        <v>4</v>
+      </c>
+      <c r="C434">
+        <v>5</v>
+      </c>
+      <c r="D434" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>1996</v>
+      </c>
+      <c r="B435" t="s">
+        <v>4</v>
+      </c>
+      <c r="C435">
+        <v>6</v>
+      </c>
+      <c r="D435" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>1996</v>
+      </c>
+      <c r="B436" t="s">
+        <v>4</v>
+      </c>
+      <c r="C436">
+        <v>7</v>
+      </c>
+      <c r="D436" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>1996</v>
+      </c>
+      <c r="B437" t="s">
+        <v>4</v>
+      </c>
+      <c r="C437">
+        <v>8</v>
+      </c>
+      <c r="D437" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>1996</v>
+      </c>
+      <c r="B438" t="s">
+        <v>4</v>
+      </c>
+      <c r="C438">
+        <v>9</v>
+      </c>
+      <c r="D438" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>1996</v>
+      </c>
+      <c r="B439" t="s">
+        <v>4</v>
+      </c>
+      <c r="C439">
+        <v>10</v>
+      </c>
+      <c r="D439" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>1996</v>
+      </c>
+      <c r="B440" t="s">
+        <v>4</v>
+      </c>
+      <c r="C440">
+        <v>11</v>
+      </c>
+      <c r="D440" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>1996</v>
+      </c>
+      <c r="B441" t="s">
+        <v>4</v>
+      </c>
+      <c r="C441">
+        <v>12</v>
+      </c>
+      <c r="D441" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>1996</v>
+      </c>
+      <c r="B442" t="s">
+        <v>4</v>
+      </c>
+      <c r="C442">
+        <v>13</v>
+      </c>
+      <c r="D442" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>1996</v>
+      </c>
+      <c r="B443" t="s">
+        <v>4</v>
+      </c>
+      <c r="C443">
+        <v>14</v>
+      </c>
+      <c r="D443" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>1996</v>
+      </c>
+      <c r="B444" t="s">
+        <v>4</v>
+      </c>
+      <c r="C444">
+        <v>15</v>
+      </c>
+      <c r="D444" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>1995</v>
+      </c>
+      <c r="B445" t="s">
+        <v>3</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="D445" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>1995</v>
+      </c>
+      <c r="B446" t="s">
+        <v>3</v>
+      </c>
+      <c r="C446">
+        <v>2</v>
+      </c>
+      <c r="D446" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>1995</v>
+      </c>
+      <c r="B447" t="s">
+        <v>3</v>
+      </c>
+      <c r="C447">
+        <v>3</v>
+      </c>
+      <c r="D447" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>1995</v>
+      </c>
+      <c r="B448" t="s">
+        <v>3</v>
+      </c>
+      <c r="C448">
+        <v>4</v>
+      </c>
+      <c r="D448" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>1995</v>
+      </c>
+      <c r="B449" t="s">
+        <v>3</v>
+      </c>
+      <c r="C449">
+        <v>5</v>
+      </c>
+      <c r="D449" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>1995</v>
+      </c>
+      <c r="B450" t="s">
+        <v>3</v>
+      </c>
+      <c r="C450">
+        <v>6</v>
+      </c>
+      <c r="D450" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>1995</v>
+      </c>
+      <c r="B451" t="s">
+        <v>3</v>
+      </c>
+      <c r="C451">
+        <v>7</v>
+      </c>
+      <c r="D451" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>1995</v>
+      </c>
+      <c r="B452" t="s">
+        <v>3</v>
+      </c>
+      <c r="C452">
+        <v>8</v>
+      </c>
+      <c r="D452" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>1995</v>
+      </c>
+      <c r="B453" t="s">
+        <v>3</v>
+      </c>
+      <c r="C453">
+        <v>9</v>
+      </c>
+      <c r="D453" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>1995</v>
+      </c>
+      <c r="B454" t="s">
+        <v>3</v>
+      </c>
+      <c r="C454">
+        <v>10</v>
+      </c>
+      <c r="D454" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>1995</v>
+      </c>
+      <c r="B455" t="s">
+        <v>3</v>
+      </c>
+      <c r="C455">
+        <v>11</v>
+      </c>
+      <c r="D455" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>1995</v>
+      </c>
+      <c r="B456" t="s">
+        <v>3</v>
+      </c>
+      <c r="C456">
+        <v>12</v>
+      </c>
+      <c r="D456" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>1995</v>
+      </c>
+      <c r="B457" t="s">
+        <v>3</v>
+      </c>
+      <c r="C457">
+        <v>13</v>
+      </c>
+      <c r="D457" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>1995</v>
+      </c>
+      <c r="B458" t="s">
+        <v>3</v>
+      </c>
+      <c r="C458">
+        <v>14</v>
+      </c>
+      <c r="D458" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>1995</v>
+      </c>
+      <c r="B459" t="s">
+        <v>3</v>
+      </c>
+      <c r="C459">
+        <v>15</v>
+      </c>
+      <c r="D459" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>1994</v>
+      </c>
+      <c r="B460" t="s">
+        <v>2</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="D460" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>1994</v>
+      </c>
+      <c r="B461" t="s">
+        <v>2</v>
+      </c>
+      <c r="C461">
+        <v>2</v>
+      </c>
+      <c r="D461" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>1994</v>
+      </c>
+      <c r="B462" t="s">
+        <v>2</v>
+      </c>
+      <c r="C462">
+        <v>3</v>
+      </c>
+      <c r="D462" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>1994</v>
+      </c>
+      <c r="B463" t="s">
+        <v>2</v>
+      </c>
+      <c r="C463">
+        <v>4</v>
+      </c>
+      <c r="D463" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>1994</v>
+      </c>
+      <c r="B464" t="s">
+        <v>2</v>
+      </c>
+      <c r="C464">
+        <v>5</v>
+      </c>
+      <c r="D464" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>1994</v>
+      </c>
+      <c r="B465" t="s">
+        <v>2</v>
+      </c>
+      <c r="C465">
+        <v>6</v>
+      </c>
+      <c r="D465" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>1994</v>
+      </c>
+      <c r="B466" t="s">
+        <v>2</v>
+      </c>
+      <c r="C466">
+        <v>7</v>
+      </c>
+      <c r="D466" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>1994</v>
+      </c>
+      <c r="B467" t="s">
+        <v>2</v>
+      </c>
+      <c r="C467">
+        <v>8</v>
+      </c>
+      <c r="D467" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>1994</v>
+      </c>
+      <c r="B468" t="s">
+        <v>2</v>
+      </c>
+      <c r="C468">
+        <v>9</v>
+      </c>
+      <c r="D468" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>1994</v>
+      </c>
+      <c r="B469" t="s">
+        <v>2</v>
+      </c>
+      <c r="C469">
+        <v>10</v>
+      </c>
+      <c r="D469" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>1994</v>
+      </c>
+      <c r="B470" t="s">
+        <v>2</v>
+      </c>
+      <c r="C470">
+        <v>11</v>
+      </c>
+      <c r="D470" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>1994</v>
+      </c>
+      <c r="B471" t="s">
+        <v>2</v>
+      </c>
+      <c r="C471">
+        <v>12</v>
+      </c>
+      <c r="D471" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>1994</v>
+      </c>
+      <c r="B472" t="s">
+        <v>2</v>
+      </c>
+      <c r="C472">
+        <v>13</v>
+      </c>
+      <c r="D472" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>1994</v>
+      </c>
+      <c r="B473" t="s">
+        <v>2</v>
+      </c>
+      <c r="C473">
+        <v>14</v>
+      </c>
+      <c r="D473" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>1993</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>1993</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1</v>
+      </c>
+      <c r="C475">
+        <v>2</v>
+      </c>
+      <c r="D475" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>1993</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1</v>
+      </c>
+      <c r="C476">
+        <v>3</v>
+      </c>
+      <c r="D476" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>1993</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1</v>
+      </c>
+      <c r="C477">
+        <v>4</v>
+      </c>
+      <c r="D477" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>1993</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1</v>
+      </c>
+      <c r="C478">
+        <v>5</v>
+      </c>
+      <c r="D478" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>1993</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1</v>
+      </c>
+      <c r="C479">
+        <v>6</v>
+      </c>
+      <c r="D479" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>1993</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1</v>
+      </c>
+      <c r="C480">
+        <v>7</v>
+      </c>
+      <c r="D480" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>1993</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1</v>
+      </c>
+      <c r="C481">
+        <v>8</v>
+      </c>
+      <c r="D481" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>1993</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1</v>
+      </c>
+      <c r="C482">
+        <v>9</v>
+      </c>
+      <c r="D482" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>1993</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1</v>
+      </c>
+      <c r="C483">
+        <v>10</v>
+      </c>
+      <c r="D483" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>1993</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1</v>
+      </c>
+      <c r="C484">
+        <v>11</v>
+      </c>
+      <c r="D484" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>1993</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1</v>
+      </c>
+      <c r="C485">
+        <v>12</v>
+      </c>
+      <c r="D485" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>1993</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1</v>
+      </c>
+      <c r="C486">
+        <v>13</v>
+      </c>
+      <c r="D486" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>1993</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1</v>
+      </c>
+      <c r="C487">
+        <v>14</v>
+      </c>
+      <c r="D487" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>1992</v>
+      </c>
+      <c r="B488" t="s">
+        <v>0</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>1992</v>
+      </c>
+      <c r="B489" t="s">
+        <v>0</v>
+      </c>
+      <c r="C489">
+        <v>2</v>
+      </c>
+      <c r="D489" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>1992</v>
+      </c>
+      <c r="B490" t="s">
+        <v>0</v>
+      </c>
+      <c r="C490">
+        <v>3</v>
+      </c>
+      <c r="D490" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>1992</v>
+      </c>
+      <c r="B491" t="s">
+        <v>0</v>
+      </c>
+      <c r="C491">
+        <v>4</v>
+      </c>
+      <c r="D491" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>1992</v>
+      </c>
+      <c r="B492" t="s">
+        <v>0</v>
+      </c>
+      <c r="C492">
+        <v>5</v>
+      </c>
+      <c r="D492" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>1992</v>
+      </c>
+      <c r="B493" t="s">
+        <v>0</v>
+      </c>
+      <c r="C493">
+        <v>6</v>
+      </c>
+      <c r="D493" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>1992</v>
+      </c>
+      <c r="B494" t="s">
+        <v>0</v>
+      </c>
+      <c r="C494">
+        <v>7</v>
+      </c>
+      <c r="D494" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>1992</v>
+      </c>
+      <c r="B495" t="s">
+        <v>0</v>
+      </c>
+      <c r="C495">
+        <v>8</v>
+      </c>
+      <c r="D495" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>1992</v>
+      </c>
+      <c r="B496" t="s">
+        <v>0</v>
+      </c>
+      <c r="C496">
+        <v>9</v>
+      </c>
+      <c r="D496" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>1992</v>
+      </c>
+      <c r="B497" t="s">
+        <v>0</v>
+      </c>
+      <c r="C497">
+        <v>10</v>
+      </c>
+      <c r="D497" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>1992</v>
+      </c>
+      <c r="B498" t="s">
+        <v>0</v>
+      </c>
+      <c r="C498">
+        <v>11</v>
+      </c>
+      <c r="D498" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>1992</v>
+      </c>
+      <c r="B499" t="s">
+        <v>0</v>
+      </c>
+      <c r="C499">
+        <v>12</v>
+      </c>
+      <c r="D499" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>1992</v>
+      </c>
+      <c r="B500" t="s">
+        <v>0</v>
+      </c>
+      <c r="C500">
+        <v>13</v>
+      </c>
+      <c r="D500" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>1992</v>
+      </c>
+      <c r="B501" t="s">
+        <v>0</v>
+      </c>
+      <c r="C501">
+        <v>14</v>
+      </c>
+      <c r="D501" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>1992</v>
+      </c>
+      <c r="B502" t="s">
+        <v>0</v>
+      </c>
+      <c r="C502">
+        <v>15</v>
+      </c>
+      <c r="D502" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>1992</v>
+      </c>
+      <c r="B503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C503">
+        <v>16</v>
+      </c>
+      <c r="D503" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>1990</v>
+      </c>
+      <c r="B504" t="s">
+        <v>31</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504" t="s">
+        <v>668</v>
+      </c>
+      <c r="E504" s="2">
+        <v>0.18819444444444444</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>1990</v>
+      </c>
+      <c r="B505" t="s">
+        <v>31</v>
+      </c>
+      <c r="C505">
+        <v>2</v>
+      </c>
+      <c r="D505" t="s">
+        <v>669</v>
+      </c>
+      <c r="E505" s="2">
+        <v>0.12430555555555556</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>1990</v>
+      </c>
+      <c r="B506" t="s">
+        <v>31</v>
+      </c>
+      <c r="C506">
+        <v>3</v>
+      </c>
+      <c r="D506" t="s">
+        <v>670</v>
+      </c>
+      <c r="E506" s="2">
+        <v>0.17152777777777775</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>1990</v>
+      </c>
+      <c r="B507" t="s">
+        <v>31</v>
+      </c>
+      <c r="C507">
+        <v>4</v>
+      </c>
+      <c r="D507" t="s">
+        <v>671</v>
+      </c>
+      <c r="E507" s="2">
+        <v>0.1013888888888889</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>1990</v>
+      </c>
+      <c r="B508" t="s">
+        <v>31</v>
+      </c>
+      <c r="C508">
+        <v>5</v>
+      </c>
+      <c r="D508" t="s">
+        <v>672</v>
+      </c>
+      <c r="E508" s="2">
+        <v>0.1173611111111111</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>1990</v>
+      </c>
+      <c r="B509" t="s">
+        <v>31</v>
+      </c>
+      <c r="C509">
+        <v>6</v>
+      </c>
+      <c r="D509" t="s">
+        <v>673</v>
+      </c>
+      <c r="E509" s="2">
+        <v>0.15138888888888888</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>1990</v>
+      </c>
+      <c r="B510" t="s">
+        <v>31</v>
+      </c>
+      <c r="C510">
+        <v>7</v>
+      </c>
+      <c r="D510" t="s">
+        <v>674</v>
+      </c>
+      <c r="E510" s="2">
+        <v>0.1277777777777778</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>1990</v>
+      </c>
+      <c r="B511" t="s">
+        <v>31</v>
+      </c>
+      <c r="C511">
+        <v>8</v>
+      </c>
+      <c r="D511" t="s">
+        <v>31</v>
+      </c>
+      <c r="E511" s="2">
+        <v>0.23333333333333331</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>1990</v>
+      </c>
+      <c r="B512" t="s">
+        <v>31</v>
+      </c>
+      <c r="C512">
+        <v>9</v>
+      </c>
+      <c r="D512" t="s">
+        <v>675</v>
+      </c>
+      <c r="E512" s="2">
+        <v>0.19166666666666665</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>1990</v>
+      </c>
+      <c r="B513" t="s">
+        <v>31</v>
+      </c>
+      <c r="C513">
+        <v>10</v>
+      </c>
+      <c r="D513" t="s">
+        <v>676</v>
+      </c>
+      <c r="E513" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>1990</v>
+      </c>
+      <c r="B514" t="s">
+        <v>31</v>
+      </c>
+      <c r="C514">
+        <v>11</v>
+      </c>
+      <c r="D514" t="s">
+        <v>677</v>
+      </c>
+      <c r="E514" s="2">
+        <v>0.24930555555555556</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>1990</v>
+      </c>
+      <c r="B515" t="s">
+        <v>31</v>
+      </c>
+      <c r="C515">
+        <v>12</v>
+      </c>
+      <c r="D515" t="s">
+        <v>678</v>
+      </c>
+      <c r="E515" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>1990</v>
+      </c>
+      <c r="B516" t="s">
+        <v>31</v>
+      </c>
+      <c r="C516">
+        <v>13</v>
+      </c>
+      <c r="D516" t="s">
+        <v>679</v>
+      </c>
+      <c r="E516" s="2">
+        <v>0.30069444444444443</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>1990</v>
+      </c>
+      <c r="B517" t="s">
+        <v>31</v>
+      </c>
+      <c r="C517">
+        <v>14</v>
+      </c>
+      <c r="D517" t="s">
+        <v>680</v>
+      </c>
+      <c r="E517" s="2">
+        <v>0.23402777777777781</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>1988</v>
+      </c>
+      <c r="B518" t="s">
+        <v>30</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+      <c r="D518" t="s">
+        <v>681</v>
+      </c>
+      <c r="E518" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>1988</v>
+      </c>
+      <c r="B519" t="s">
+        <v>30</v>
+      </c>
+      <c r="C519">
+        <v>2</v>
+      </c>
+      <c r="D519" t="s">
+        <v>683</v>
+      </c>
+      <c r="E519" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>1988</v>
+      </c>
+      <c r="B520" t="s">
+        <v>30</v>
+      </c>
+      <c r="C520">
+        <v>3</v>
+      </c>
+      <c r="D520" t="s">
+        <v>685</v>
+      </c>
+      <c r="E520" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>1988</v>
+      </c>
+      <c r="B521" t="s">
+        <v>30</v>
+      </c>
+      <c r="C521">
+        <v>4</v>
+      </c>
+      <c r="D521" t="s">
+        <v>686</v>
+      </c>
+      <c r="E521" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>1988</v>
+      </c>
+      <c r="B522" t="s">
+        <v>30</v>
+      </c>
+      <c r="C522">
+        <v>5</v>
+      </c>
+      <c r="D522" t="s">
+        <v>687</v>
+      </c>
+      <c r="E522" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>1988</v>
+      </c>
+      <c r="B523" t="s">
+        <v>30</v>
+      </c>
+      <c r="C523">
+        <v>6</v>
+      </c>
+      <c r="D523" t="s">
+        <v>688</v>
+      </c>
+      <c r="E523" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>1988</v>
+      </c>
+      <c r="B524" t="s">
+        <v>30</v>
+      </c>
+      <c r="C524">
+        <v>7</v>
+      </c>
+      <c r="D524" t="s">
+        <v>689</v>
+      </c>
+      <c r="E524" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>1988</v>
+      </c>
+      <c r="B525" t="s">
+        <v>30</v>
+      </c>
+      <c r="C525">
+        <v>8</v>
+      </c>
+      <c r="D525" t="s">
+        <v>691</v>
+      </c>
+      <c r="E525" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>1988</v>
+      </c>
+      <c r="B526" t="s">
+        <v>30</v>
+      </c>
+      <c r="C526">
+        <v>9</v>
+      </c>
+      <c r="D526" t="s">
+        <v>692</v>
+      </c>
+      <c r="E526" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>1988</v>
+      </c>
+      <c r="B527" t="s">
+        <v>30</v>
+      </c>
+      <c r="C527">
+        <v>10</v>
+      </c>
+      <c r="D527" t="s">
+        <v>693</v>
+      </c>
+      <c r="E527" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>1988</v>
+      </c>
+      <c r="B528" t="s">
+        <v>30</v>
+      </c>
+      <c r="C528">
+        <v>11</v>
+      </c>
+      <c r="D528" t="s">
+        <v>322</v>
+      </c>
+      <c r="E528" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G385" xr:uid="{D8DEFADC-E8E3-4F79-AB30-05360213D315}"/>
-  <conditionalFormatting sqref="D1:D296 D386:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="D1:D296 D529:D1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I297:I385">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D386:D528">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H386:H528">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
